--- a/models/US_no_core_rt/data/US_local.xlsx
+++ b/models/US_no_core_rt/data/US_local.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosimoizzo\Now-Casting Dropbox\Inflation\pi_standard\models\US_oos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70724780-8810-4E14-ACAE-2F567DBA4587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3151F-38EF-B14D-87B1-2CA178D4B6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="1" r:id="rId1"/>
     <sheet name="quarterly" sheetId="2" r:id="rId2"/>
-    <sheet name="calendar" sheetId="3" r:id="rId3"/>
+    <sheet name="transf" sheetId="4" r:id="rId3"/>
+    <sheet name="calendar" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_DLX1.INC">monthly!$1:$18</definedName>
+    <definedName name="_DLX2.INC" localSheetId="2">#REF!</definedName>
     <definedName name="_DLX2.INC">quarterly!$1:$18</definedName>
+    <definedName name="_DLX4.INC">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="610">
   <si>
     <t>198501 *M</t>
   </si>
@@ -1858,6 +1864,15 @@
   </si>
   <si>
     <t>OIL</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>MNEMONIC</t>
+  </si>
+  <si>
+    <t>Prof Forecasters: Median: 1-Year-Ahead GDP Expectation (SA, Bil.Chn.2012$)</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1883,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1900,6 +1915,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1936,12 +1958,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1953,13 +1977,20 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="2" xr:uid="{DBCC1697-0F2C-4873-B4E9-A125557BF0AE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{F8F476CE-FF70-6C4D-9652-125477E6E1C4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E60E7595-97E1-934C-866D-A070B6C023F9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1972,6 +2003,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="monthly"/>
+      <sheetName val="quarterly"/>
+      <sheetName val="transf"/>
+      <sheetName val="SPF_growth"/>
+      <sheetName val="calendar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,16 +2325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C426"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
+    <col min="4" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6930,17 +6980,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="56" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="1026" width="8.85546875" customWidth="1"/>
+    <col min="5" max="1026" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9055,83 +9103,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CC1061-2A39-8945-9AB2-0A62C5E3B164}">
+  <dimension ref="A1:AMK4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="88.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15" customWidth="1"/>
+    <col min="3" max="1025" width="8.83203125" style="14" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="14" customFormat="1">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="14" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="14" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AGZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="16" style="5" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="5" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" style="5" customWidth="1"/>
-    <col min="32" max="32" width="18.140625" style="5" customWidth="1"/>
-    <col min="33" max="33" width="21.140625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="5" customWidth="1"/>
-    <col min="35" max="35" width="20.85546875" style="5" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="5" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" style="5" customWidth="1"/>
-    <col min="38" max="38" width="19.5703125" style="5" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="5" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" style="5" customWidth="1"/>
-    <col min="41" max="41" width="16" style="5" customWidth="1"/>
-    <col min="42" max="42" width="16.42578125" style="5" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="5" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" style="5" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" style="5" customWidth="1"/>
-    <col min="46" max="46" width="19.140625" style="5" customWidth="1"/>
-    <col min="47" max="47" width="20.85546875" style="5" customWidth="1"/>
-    <col min="48" max="48" width="20.5703125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" style="5" customWidth="1"/>
-    <col min="50" max="50" width="19.5703125" style="5" customWidth="1"/>
-    <col min="51" max="51" width="17.85546875" style="5" customWidth="1"/>
-    <col min="52" max="52" width="16.5703125" style="5" customWidth="1"/>
-    <col min="53" max="53" width="16" style="5" customWidth="1"/>
-    <col min="54" max="54" width="16.42578125" style="5" customWidth="1"/>
-    <col min="55" max="56" width="18.140625" style="5" customWidth="1"/>
-    <col min="57" max="57" width="21.140625" style="5" customWidth="1"/>
-    <col min="58" max="58" width="19.140625" style="5" customWidth="1"/>
-    <col min="59" max="59" width="20.85546875" style="5" customWidth="1"/>
-    <col min="60" max="60" width="20.5703125" style="5" customWidth="1"/>
-    <col min="61" max="61" width="18.85546875" style="5" customWidth="1"/>
-    <col min="62" max="62" width="19.5703125" style="5" customWidth="1"/>
-    <col min="63" max="63" width="17.85546875" style="5" customWidth="1"/>
-    <col min="64" max="64" width="16.5703125" style="5" customWidth="1"/>
-    <col min="65" max="65" width="16" style="5" customWidth="1"/>
-    <col min="66" max="66" width="16.42578125" style="5" customWidth="1"/>
-    <col min="67" max="182" width="11.5703125" style="5" customWidth="1"/>
-    <col min="183" max="884" width="10.85546875" style="9" customWidth="1"/>
-    <col min="885" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="67.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="13" customWidth="1"/>
+    <col min="17" max="17" width="16" style="13" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="13" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="20.5" style="13" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="13" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" style="13" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="13" customWidth="1"/>
+    <col min="29" max="29" width="16" style="13" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="13" customWidth="1"/>
+    <col min="31" max="31" width="15.83203125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="18.1640625" style="13" customWidth="1"/>
+    <col min="33" max="33" width="21.1640625" style="13" customWidth="1"/>
+    <col min="34" max="34" width="19.1640625" style="13" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" style="13" customWidth="1"/>
+    <col min="36" max="36" width="20.5" style="13" customWidth="1"/>
+    <col min="37" max="37" width="18.83203125" style="13" customWidth="1"/>
+    <col min="38" max="38" width="19.5" style="13" customWidth="1"/>
+    <col min="39" max="39" width="17.83203125" style="13" customWidth="1"/>
+    <col min="40" max="40" width="16.5" style="13" customWidth="1"/>
+    <col min="41" max="41" width="16" style="13" customWidth="1"/>
+    <col min="42" max="42" width="16.5" style="13" customWidth="1"/>
+    <col min="43" max="43" width="15.83203125" style="13" customWidth="1"/>
+    <col min="44" max="44" width="18.1640625" style="13" customWidth="1"/>
+    <col min="45" max="45" width="21.1640625" style="13" customWidth="1"/>
+    <col min="46" max="46" width="19.1640625" style="13" customWidth="1"/>
+    <col min="47" max="47" width="20.83203125" style="13" customWidth="1"/>
+    <col min="48" max="48" width="20.5" style="13" customWidth="1"/>
+    <col min="49" max="49" width="19.83203125" style="13" customWidth="1"/>
+    <col min="50" max="50" width="19.5" style="13" customWidth="1"/>
+    <col min="51" max="51" width="17.83203125" style="13" customWidth="1"/>
+    <col min="52" max="52" width="16.5" style="13" customWidth="1"/>
+    <col min="53" max="53" width="16" style="13" customWidth="1"/>
+    <col min="54" max="54" width="16.5" style="13" customWidth="1"/>
+    <col min="55" max="56" width="18.1640625" style="13" customWidth="1"/>
+    <col min="57" max="57" width="21.1640625" style="13" customWidth="1"/>
+    <col min="58" max="58" width="19.1640625" style="13" customWidth="1"/>
+    <col min="59" max="59" width="20.83203125" style="13" customWidth="1"/>
+    <col min="60" max="60" width="20.5" style="13" customWidth="1"/>
+    <col min="61" max="61" width="18.83203125" style="13" customWidth="1"/>
+    <col min="62" max="62" width="19.5" style="13" customWidth="1"/>
+    <col min="63" max="63" width="17.83203125" style="13" customWidth="1"/>
+    <col min="64" max="64" width="16.5" style="13" customWidth="1"/>
+    <col min="65" max="65" width="16" style="13" customWidth="1"/>
+    <col min="66" max="66" width="16.5" style="13" customWidth="1"/>
+    <col min="67" max="182" width="11.5" style="13" customWidth="1"/>
+    <col min="183" max="884" width="10.83203125" style="9" customWidth="1"/>
+    <col min="885" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:182">

--- a/models/US_no_core_rt/data/US_local.xlsx
+++ b/models/US_no_core_rt/data/US_local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Documents/Shared/Nowcasting stargate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDA98D-3596-1543-988E-1073A137B6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A027A5-DB65-3C42-9A24-302CE5359E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20920" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16880" yWindow="460" windowWidth="20920" windowHeight="16240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="648">
   <si>
     <t>ASACX1@HAVER</t>
   </si>
@@ -1982,6 +1982,9 @@
   </si>
   <si>
     <t>Jun-2020</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2091,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2122,6 +2125,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2465,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -15739,7 +15743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJO4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -15751,6 +15757,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:951" s="5" customFormat="1" ht="16" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>647</v>
+      </c>
       <c r="B1" s="12">
         <v>38260</v>
       </c>

--- a/models/US_no_core_rt/data/US_local.xlsx
+++ b/models/US_no_core_rt/data/US_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A027A5-DB65-3C42-9A24-302CE5359E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C8393-8531-1E47-A4D8-A957AB1621B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="460" windowWidth="20920" windowHeight="16240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7880" yWindow="460" windowWidth="20920" windowHeight="16240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_DLX4.INC" localSheetId="2">SPF_growth!$1:$18</definedName>
     <definedName name="_DLX4.INC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="649">
   <si>
     <t>ASACX1@HAVER</t>
   </si>
@@ -1985,6 +1985,9 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1996,7 +1999,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,11 +2039,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2091,7 +2089,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2112,7 +2110,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2124,7 +2121,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2469,7 +2466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A236" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -7332,7 +7329,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>597</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -7343,7 +7340,7 @@
       <c r="A2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>641</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -7354,7 +7351,7 @@
       <c r="A3" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -7365,7 +7362,7 @@
       <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -7376,7 +7373,7 @@
       <c r="A5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -7387,7 +7384,7 @@
       <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -7398,7 +7395,7 @@
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -7409,7 +7406,7 @@
       <c r="A8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -7420,7 +7417,7 @@
       <c r="A9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -7431,7 +7428,7 @@
       <c r="A10" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7442,7 +7439,7 @@
       <c r="A11" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -7453,7 +7450,7 @@
       <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -7464,7 +7461,7 @@
       <c r="A13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -7475,7 +7472,7 @@
       <c r="A14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -7486,7 +7483,7 @@
       <c r="A15" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -7497,7 +7494,7 @@
       <c r="A16" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -7508,7 +7505,7 @@
       <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -7519,7 +7516,7 @@
       <c r="A18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -7533,11 +7530,11 @@
       <c r="B19" s="2">
         <v>31137</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <f>SPF_growth!K19/100</f>
         <v>9.2310923276235357E-3</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>4.12</v>
       </c>
     </row>
@@ -7548,11 +7545,11 @@
       <c r="B20" s="2">
         <v>31228</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>SPF_growth!K20/100</f>
         <v>8.0413554106493201E-3</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -7563,11 +7560,11 @@
       <c r="B21" s="2">
         <v>31320</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f>SPF_growth!K21/100</f>
         <v>6.8305145354505825E-3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>4.25</v>
       </c>
     </row>
@@ -7578,11 +7575,11 @@
       <c r="B22" s="2">
         <v>31412</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f>SPF_growth!K22/100</f>
         <v>7.362304176079304E-3</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>3.85</v>
       </c>
     </row>
@@ -7593,11 +7590,11 @@
       <c r="B23" s="2">
         <v>31502</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f>SPF_growth!K23/100</f>
         <v>6.972346001087093E-3</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>3.59</v>
       </c>
     </row>
@@ -7608,11 +7605,11 @@
       <c r="B24" s="2">
         <v>31593</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f>SPF_growth!K24/100</f>
         <v>9.1249075773616184E-3</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>3.41</v>
       </c>
     </row>
@@ -7623,11 +7620,11 @@
       <c r="B25" s="2">
         <v>31685</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f>SPF_growth!K25/100</f>
         <v>7.3248926246487489E-3</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>3.5</v>
       </c>
     </row>
@@ -7638,11 +7635,11 @@
       <c r="B26" s="2">
         <v>31777</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <f>SPF_growth!K26/100</f>
         <v>7.2429386776224902E-3</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>3.62</v>
       </c>
     </row>
@@ -7653,11 +7650,11 @@
       <c r="B27" s="2">
         <v>31867</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <f>SPF_growth!K27/100</f>
         <v>7.3186843382373468E-3</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>3.9</v>
       </c>
     </row>
@@ -7668,11 +7665,11 @@
       <c r="B28" s="2">
         <v>31958</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <f>SPF_growth!K28/100</f>
         <v>7.0498309407629467E-3</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>4.3600000000000003</v>
       </c>
     </row>
@@ -7683,11 +7680,11 @@
       <c r="B29" s="2">
         <v>32050</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <f>SPF_growth!K29/100</f>
         <v>7.0739588682282584E-3</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>4.5</v>
       </c>
     </row>
@@ -7698,11 +7695,11 @@
       <c r="B30" s="2">
         <v>32142</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <f>SPF_growth!K30/100</f>
         <v>5.4535653638578818E-3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>4.37</v>
       </c>
     </row>
@@ -7713,11 +7710,11 @@
       <c r="B31" s="2">
         <v>32233</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <f>SPF_growth!K31/100</f>
         <v>5.3529086139807447E-3</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>4.2</v>
       </c>
     </row>
@@ -7728,11 +7725,11 @@
       <c r="B32" s="2">
         <v>32324</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <f>SPF_growth!K32/100</f>
         <v>6.6241501398442981E-3</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>4.57</v>
       </c>
     </row>
@@ -7743,11 +7740,11 @@
       <c r="B33" s="2">
         <v>32416</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <f>SPF_growth!K33/100</f>
         <v>6.5118259928413913E-3</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -7758,11 +7755,11 @@
       <c r="B34" s="2">
         <v>32508</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <f>SPF_growth!K34/100</f>
         <v>6.2972928794058358E-3</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -7773,11 +7770,11 @@
       <c r="B35" s="2">
         <v>32598</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <f>SPF_growth!K35/100</f>
         <v>4.0494520061742367E-3</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -7788,11 +7785,11 @@
       <c r="B36" s="2">
         <v>32689</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="19">
         <f>SPF_growth!K36/100</f>
         <v>3.812019316142834E-3</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>4.91</v>
       </c>
     </row>
@@ -7803,11 +7800,11 @@
       <c r="B37" s="2">
         <v>32781</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <f>SPF_growth!K37/100</f>
         <v>5.264785151075202E-3</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -7818,11 +7815,11 @@
       <c r="B38" s="2">
         <v>32873</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <f>SPF_growth!K38/100</f>
         <v>5.0121317528326603E-3</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -7833,11 +7830,11 @@
       <c r="B39" s="2">
         <v>32963</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <f>SPF_growth!K39/100</f>
         <v>5.774770227933379E-3</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -7848,11 +7845,11 @@
       <c r="B40" s="2">
         <v>33054</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <f>SPF_growth!K40/100</f>
         <v>6.2308049092900664E-3</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>4.2</v>
       </c>
     </row>
@@ -7863,11 +7860,11 @@
       <c r="B41" s="2">
         <v>33146</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <f>SPF_growth!K41/100</f>
         <v>2.9921486625135163E-3</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>4.45</v>
       </c>
     </row>
@@ -7878,11 +7875,11 @@
       <c r="B42" s="2">
         <v>33238</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <f>SPF_growth!K42/100</f>
         <v>1.8699840887628216E-3</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>4.51</v>
       </c>
     </row>
@@ -7893,11 +7890,11 @@
       <c r="B43" s="2">
         <v>33328</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <f>SPF_growth!K43/100</f>
         <v>4.9892985882478147E-3</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>3.66</v>
       </c>
     </row>
@@ -7908,11 +7905,11 @@
       <c r="B44" s="2">
         <v>33419</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <f>SPF_growth!K44/100</f>
         <v>6.7617243643305347E-3</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>3.84</v>
       </c>
     </row>
@@ -7923,11 +7920,11 @@
       <c r="B45" s="2">
         <v>33511</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <f>SPF_growth!K45/100</f>
         <v>7.0373174696498619E-3</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>3.77</v>
       </c>
     </row>
@@ -7938,11 +7935,11 @@
       <c r="B46" s="2">
         <v>33603</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="19">
         <f>SPF_growth!K46/100</f>
         <v>7.0368503741999877E-3</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>3.55</v>
       </c>
     </row>
@@ -7953,11 +7950,11 @@
       <c r="B47" s="2">
         <v>33694</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <f>SPF_growth!K47/100</f>
         <v>7.0933774800152616E-3</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>3.4</v>
       </c>
     </row>
@@ -7968,11 +7965,11 @@
       <c r="B48" s="2">
         <v>33785</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="19">
         <f>SPF_growth!K48/100</f>
         <v>7.8874483082800317E-3</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <v>3.52</v>
       </c>
     </row>
@@ -7983,11 +7980,11 @@
       <c r="B49" s="2">
         <v>33877</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <f>SPF_growth!K49/100</f>
         <v>6.7183843321154679E-3</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>3.33</v>
       </c>
     </row>
@@ -7998,11 +7995,11 @@
       <c r="B50" s="2">
         <v>33969</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <f>SPF_growth!K50/100</f>
         <v>7.3995781607556488E-3</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>3.25</v>
       </c>
     </row>
@@ -8013,11 +8010,11 @@
       <c r="B51" s="2">
         <v>34059</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <f>SPF_growth!K51/100</f>
         <v>7.8185838971052135E-3</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>3.21</v>
       </c>
     </row>
@@ -8028,11 +8025,11 @@
       <c r="B52" s="2">
         <v>34150</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <f>SPF_growth!K52/100</f>
         <v>7.7060129398076604E-3</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>3.37</v>
       </c>
     </row>
@@ -8043,11 +8040,11 @@
       <c r="B53" s="2">
         <v>34242</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <f>SPF_growth!K53/100</f>
         <v>7.3623960000597233E-3</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>3.3</v>
       </c>
     </row>
@@ -8058,11 +8055,11 @@
       <c r="B54" s="2">
         <v>34334</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="19">
         <f>SPF_growth!K54/100</f>
         <v>6.9373953182720882E-3</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>3.03</v>
       </c>
     </row>
@@ -8073,11 +8070,11 @@
       <c r="B55" s="2">
         <v>34424</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <f>SPF_growth!K55/100</f>
         <v>7.1121542451979547E-3</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>3.2</v>
       </c>
     </row>
@@ -8088,11 +8085,11 @@
       <c r="B56" s="2">
         <v>34515</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <f>SPF_growth!K56/100</f>
         <v>6.724734925990683E-3</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>3.28</v>
       </c>
     </row>
@@ -8103,11 +8100,11 @@
       <c r="B57" s="2">
         <v>34607</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <f>SPF_growth!K57/100</f>
         <v>6.1874699511825781E-3</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>3.33</v>
       </c>
     </row>
@@ -8118,11 +8115,11 @@
       <c r="B58" s="2">
         <v>34699</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <f>SPF_growth!K58/100</f>
         <v>6.3061654967608849E-3</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>3.43</v>
       </c>
     </row>
@@ -8133,11 +8130,11 @@
       <c r="B59" s="2">
         <v>34789</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <f>SPF_growth!K59/100</f>
         <v>6.0623011217268985E-3</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>3.41</v>
       </c>
     </row>
@@ -8148,11 +8145,11 @@
       <c r="B60" s="2">
         <v>34880</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <f>SPF_growth!K60/100</f>
         <v>6.331080545903145E-3</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>3.53</v>
       </c>
     </row>
@@ -8163,11 +8160,11 @@
       <c r="B61" s="2">
         <v>34972</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <f>SPF_growth!K61/100</f>
         <v>6.7374799001742591E-3</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>3.28</v>
       </c>
     </row>
@@ -8178,11 +8175,11 @@
       <c r="B62" s="2">
         <v>35064</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="19">
         <f>SPF_growth!K62/100</f>
         <v>6.2437075477326243E-3</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>2.95</v>
       </c>
     </row>
@@ -8193,11 +8190,11 @@
       <c r="B63" s="2">
         <v>35155</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <f>SPF_growth!K63/100</f>
         <v>5.9685755205713953E-3</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>2.78</v>
       </c>
     </row>
@@ -8208,11 +8205,11 @@
       <c r="B64" s="2">
         <v>35246</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="19">
         <f>SPF_growth!K64/100</f>
         <v>5.1061485916221727E-3</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>2.87</v>
       </c>
     </row>
@@ -8223,11 +8220,11 @@
       <c r="B65" s="2">
         <v>35338</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <f>SPF_growth!K65/100</f>
         <v>5.0873503970347844E-3</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <v>3</v>
       </c>
     </row>
@@ -8238,11 +8235,11 @@
       <c r="B66" s="2">
         <v>35430</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="19">
         <f>SPF_growth!K66/100</f>
         <v>5.4999064609069226E-3</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>3.03</v>
       </c>
     </row>
@@ -8253,11 +8250,11 @@
       <c r="B67" s="2">
         <v>35520</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="19">
         <f>SPF_growth!K67/100</f>
         <v>5.5436703808635635E-3</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>3.06</v>
       </c>
     </row>
@@ -8268,11 +8265,11 @@
       <c r="B68" s="2">
         <v>35611</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
         <f>SPF_growth!K68/100</f>
         <v>5.5060822588559599E-3</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <v>3</v>
       </c>
     </row>
@@ -8283,11 +8280,11 @@
       <c r="B69" s="2">
         <v>35703</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <f>SPF_growth!K69/100</f>
         <v>6.0934820113078825E-3</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <v>2.85</v>
       </c>
     </row>
@@ -8298,11 +8295,11 @@
       <c r="B70" s="2">
         <v>35795</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="19">
         <f>SPF_growth!K70/100</f>
         <v>5.8624505213646927E-3</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>2.6</v>
       </c>
     </row>
@@ -8313,11 +8310,11 @@
       <c r="B71" s="2">
         <v>35885</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="19">
         <f>SPF_growth!K71/100</f>
         <v>5.6184528476153073E-3</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -8328,11 +8325,11 @@
       <c r="B72" s="2">
         <v>35976</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="19">
         <f>SPF_growth!K72/100</f>
         <v>5.6124860919704034E-3</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -8343,11 +8340,11 @@
       <c r="B73" s="2">
         <v>36068</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="19">
         <f>SPF_growth!K73/100</f>
         <v>6.1870707036402184E-3</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <v>2.48</v>
       </c>
     </row>
@@ -8358,11 +8355,11 @@
       <c r="B74" s="2">
         <v>36160</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <f>SPF_growth!K74/100</f>
         <v>4.6811346999353631E-3</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>2.31</v>
       </c>
     </row>
@@ -8373,11 +8370,11 @@
       <c r="B75" s="2">
         <v>36250</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <f>SPF_growth!K75/100</f>
         <v>5.8747795233102806E-3</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>2.17</v>
       </c>
     </row>
@@ -8388,11 +8385,11 @@
       <c r="B76" s="2">
         <v>36341</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <f>SPF_growth!K76/100</f>
         <v>6.4368840898705315E-3</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -8403,11 +8400,11 @@
       <c r="B77" s="2">
         <v>36433</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <f>SPF_growth!K77/100</f>
         <v>6.3744641358740584E-3</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="18">
         <v>2.38</v>
       </c>
     </row>
@@ -8418,11 +8415,11 @@
       <c r="B78" s="2">
         <v>36525</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="19">
         <f>SPF_growth!K78/100</f>
         <v>7.2807160968004769E-3</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -8433,11 +8430,11 @@
       <c r="B79" s="2">
         <v>36616</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <f>SPF_growth!K79/100</f>
         <v>7.5811621767614135E-3</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="18">
         <v>2.46</v>
       </c>
     </row>
@@ -8448,11 +8445,11 @@
       <c r="B80" s="2">
         <v>36707</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="19">
         <f>SPF_growth!K80/100</f>
         <v>7.4056953353818233E-3</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>2.61</v>
       </c>
     </row>
@@ -8463,11 +8460,11 @@
       <c r="B81" s="2">
         <v>36799</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <f>SPF_growth!K81/100</f>
         <v>7.5686105000138948E-3</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="18">
         <v>2.71</v>
       </c>
     </row>
@@ -8478,11 +8475,11 @@
       <c r="B82" s="2">
         <v>36891</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="19">
         <f>SPF_growth!K82/100</f>
         <v>8.1499886860054715E-3</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <v>2.68</v>
       </c>
     </row>
@@ -8493,11 +8490,11 @@
       <c r="B83" s="2">
         <v>36981</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <f>SPF_growth!K83/100</f>
         <v>8.0175650744016558E-3</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="18">
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -8508,11 +8505,11 @@
       <c r="B84" s="2">
         <v>37072</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="19">
         <f>SPF_growth!K84/100</f>
         <v>7.0238949003273987E-3</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <v>2.5099999999999998</v>
       </c>
     </row>
@@ -8523,11 +8520,11 @@
       <c r="B85" s="2">
         <v>37164</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <f>SPF_growth!K85/100</f>
         <v>7.7367802883900882E-3</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>2.6</v>
       </c>
     </row>
@@ -8538,11 +8535,11 @@
       <c r="B86" s="2">
         <v>37256</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="19">
         <f>SPF_growth!K86/100</f>
         <v>6.2989332866600911E-3</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="18">
         <v>2.15</v>
       </c>
     </row>
@@ -8553,11 +8550,11 @@
       <c r="B87" s="2">
         <v>37346</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <f>SPF_growth!K87/100</f>
         <v>8.2056296806840567E-3</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="18">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -8568,11 +8565,11 @@
       <c r="B88" s="2">
         <v>37437</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="19">
         <f>SPF_growth!K88/100</f>
         <v>8.5999403513785655E-3</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="18">
         <v>2.35</v>
       </c>
     </row>
@@ -8583,11 +8580,11 @@
       <c r="B89" s="2">
         <v>37529</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <f>SPF_growth!K89/100</f>
         <v>7.9870220883944132E-3</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <v>2.29</v>
       </c>
     </row>
@@ -8598,11 +8595,11 @@
       <c r="B90" s="2">
         <v>37621</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="19">
         <f>SPF_growth!K90/100</f>
         <v>8.1614694367966312E-3</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>2.19</v>
       </c>
     </row>
@@ -8613,11 +8610,11 @@
       <c r="B91" s="2">
         <v>37711</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <f>SPF_growth!K91/100</f>
         <v>8.4682556073343296E-3</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="18">
         <v>2.13</v>
       </c>
     </row>
@@ -8628,11 +8625,11 @@
       <c r="B92" s="2">
         <v>37802</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <f>SPF_growth!K92/100</f>
         <v>8.8435084553293297E-3</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="18">
         <v>2.09</v>
       </c>
     </row>
@@ -8643,11 +8640,11 @@
       <c r="B93" s="2">
         <v>37894</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <f>SPF_growth!K93/100</f>
         <v>9.4749626894177208E-3</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="18">
         <v>1.82</v>
       </c>
     </row>
@@ -8658,11 +8655,11 @@
       <c r="B94" s="2">
         <v>37986</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="19">
         <f>SPF_growth!K94/100</f>
         <v>9.5437163552321014E-3</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>2.13</v>
       </c>
     </row>
@@ -8673,11 +8670,11 @@
       <c r="B95" s="2">
         <v>38077</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <f>SPF_growth!K95/100</f>
         <v>9.9685873278418935E-3</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <v>1.63</v>
       </c>
     </row>
@@ -8688,11 +8685,11 @@
       <c r="B96" s="2">
         <v>38168</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="19">
         <f>SPF_growth!K96/100</f>
         <v>9.93120631126021E-3</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <v>2.13</v>
       </c>
     </row>
@@ -8703,11 +8700,11 @@
       <c r="B97" s="2">
         <v>38260</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <f>SPF_growth!K97/100</f>
         <v>9.256067547759983E-3</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -8718,11 +8715,11 @@
       <c r="B98" s="2">
         <v>38352</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="19">
         <f>SPF_growth!K98/100</f>
         <v>8.4999972112047573E-3</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -8733,11 +8730,11 @@
       <c r="B99" s="2">
         <v>38442</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <f>SPF_growth!K99/100</f>
         <v>8.7124426101865549E-3</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <v>2.25</v>
       </c>
     </row>
@@ -8748,11 +8745,11 @@
       <c r="B100" s="2">
         <v>38533</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="19">
         <f>SPF_growth!K100/100</f>
         <v>8.462469551814511E-3</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <v>2.38</v>
       </c>
     </row>
@@ -8763,11 +8760,11 @@
       <c r="B101" s="2">
         <v>38625</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <f>SPF_growth!K101/100</f>
         <v>8.4186884409296336E-3</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="18">
         <v>2.44</v>
       </c>
     </row>
@@ -8778,11 +8775,11 @@
       <c r="B102" s="2">
         <v>38717</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="19">
         <f>SPF_growth!K102/100</f>
         <v>8.3686041882338191E-3</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="18">
         <v>2.39</v>
       </c>
     </row>
@@ -8793,11 +8790,11 @@
       <c r="B103" s="2">
         <v>38807</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="19">
         <f>SPF_growth!K103/100</f>
         <v>8.0436963008880813E-3</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="18">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -8808,11 +8805,11 @@
       <c r="B104" s="2">
         <v>38898</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C104" s="19">
         <f>SPF_growth!K104/100</f>
         <v>7.5062325715924416E-3</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="18">
         <v>2.39</v>
       </c>
     </row>
@@ -8823,11 +8820,11 @@
       <c r="B105" s="2">
         <v>38990</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="19">
         <f>SPF_growth!K105/100</f>
         <v>7.1499773483414408E-3</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="18">
         <v>2.63</v>
       </c>
     </row>
@@ -8838,11 +8835,11 @@
       <c r="B106" s="2">
         <v>39082</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C106" s="19">
         <f>SPF_growth!K106/100</f>
         <v>7.1374786656293043E-3</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="18">
         <v>2.62</v>
       </c>
     </row>
@@ -8853,11 +8850,11 @@
       <c r="B107" s="2">
         <v>39172</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="19">
         <f>SPF_growth!K107/100</f>
         <v>7.4811657137521248E-3</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="18">
         <v>2.46</v>
       </c>
     </row>
@@ -8868,11 +8865,11 @@
       <c r="B108" s="2">
         <v>39263</v>
       </c>
-      <c r="C108" s="20">
+      <c r="C108" s="19">
         <f>SPF_growth!K108/100</f>
         <v>7.1061813537347529E-3</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="18">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -8883,11 +8880,11 @@
       <c r="B109" s="2">
         <v>39355</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="19">
         <f>SPF_growth!K109/100</f>
         <v>6.8312134796624235E-3</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="18">
         <v>2.23</v>
       </c>
     </row>
@@ -8898,11 +8895,11 @@
       <c r="B110" s="2">
         <v>39447</v>
       </c>
-      <c r="C110" s="20">
+      <c r="C110" s="19">
         <f>SPF_growth!K110/100</f>
         <v>6.2310511792726953E-3</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="18">
         <v>2.44</v>
       </c>
     </row>
@@ -8913,11 +8910,11 @@
       <c r="B111" s="2">
         <v>39538</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="19">
         <f>SPF_growth!K111/100</f>
         <v>6.2672552093250289E-3</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="18">
         <v>2.38</v>
       </c>
     </row>
@@ -8928,11 +8925,11 @@
       <c r="B112" s="2">
         <v>39629</v>
       </c>
-      <c r="C112" s="20">
+      <c r="C112" s="19">
         <f>SPF_growth!K112/100</f>
         <v>5.2059145264187201E-3</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="18">
         <v>2.67</v>
       </c>
     </row>
@@ -8943,11 +8940,11 @@
       <c r="B113" s="2">
         <v>39721</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="19">
         <f>SPF_growth!K113/100</f>
         <v>4.3297974658751404E-3</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="18">
         <v>2.52</v>
       </c>
     </row>
@@ -8958,11 +8955,11 @@
       <c r="B114" s="2">
         <v>39813</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C114" s="19">
         <f>SPF_growth!K114/100</f>
         <v>1.7892637742296102E-3</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="18">
         <v>1.76</v>
       </c>
     </row>
@@ -8973,11 +8970,11 @@
       <c r="B115" s="2">
         <v>39903</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C115" s="19">
         <f>SPF_growth!K115/100</f>
         <v>2.1358213498881007E-3</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="18">
         <v>1.56</v>
       </c>
     </row>
@@ -8988,11 +8985,11 @@
       <c r="B116" s="2">
         <v>39994</v>
       </c>
-      <c r="C116" s="20">
+      <c r="C116" s="19">
         <f>SPF_growth!K116/100</f>
         <v>4.5724672696989543E-3</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="18">
         <v>1.71</v>
       </c>
     </row>
@@ -9003,11 +9000,11 @@
       <c r="B117" s="2">
         <v>40086</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="19">
         <f>SPF_growth!K117/100</f>
         <v>6.2998367858191351E-3</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="18">
         <v>1.8</v>
       </c>
     </row>
@@ -9018,11 +9015,11 @@
       <c r="B118" s="2">
         <v>40178</v>
       </c>
-      <c r="C118" s="20">
+      <c r="C118" s="19">
         <f>SPF_growth!K118/100</f>
         <v>6.3935801326362451E-3</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="18">
         <v>1.63</v>
       </c>
     </row>
@@ -9033,11 +9030,11 @@
       <c r="B119" s="2">
         <v>40268</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="19">
         <f>SPF_growth!K119/100</f>
         <v>6.7812494761951836E-3</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="18">
         <v>1.79</v>
       </c>
     </row>
@@ -9048,11 +9045,11 @@
       <c r="B120" s="2">
         <v>40359</v>
       </c>
-      <c r="C120" s="20">
+      <c r="C120" s="19">
         <f>SPF_growth!K120/100</f>
         <v>7.5497999417120099E-3</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="18">
         <v>1.88</v>
       </c>
     </row>
@@ -9063,11 +9060,11 @@
       <c r="B121" s="2">
         <v>40451</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="19">
         <f>SPF_growth!K121/100</f>
         <v>6.9809261182789406E-3</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="18">
         <v>1.72</v>
       </c>
     </row>
@@ -9078,11 +9075,11 @@
       <c r="B122" s="2">
         <v>40543</v>
       </c>
-      <c r="C122" s="20">
+      <c r="C122" s="19">
         <f>SPF_growth!K122/100</f>
         <v>7.037163570069227E-3</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="18">
         <v>1.61</v>
       </c>
     </row>
@@ -9093,11 +9090,11 @@
       <c r="B123" s="2">
         <v>40633</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="19">
         <f>SPF_growth!K123/100</f>
         <v>8.1373908181443522E-3</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="18">
         <v>1.72</v>
       </c>
     </row>
@@ -9108,11 +9105,11 @@
       <c r="B124" s="2">
         <v>40724</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="19">
         <f>SPF_growth!K124/100</f>
         <v>7.6682308294573343E-3</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="18">
         <v>2.13</v>
       </c>
     </row>
@@ -9123,11 +9120,11 @@
       <c r="B125" s="2">
         <v>40816</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="19">
         <f>SPF_growth!K125/100</f>
         <v>6.7621047359829323E-3</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="18">
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -9138,11 +9135,11 @@
       <c r="B126" s="2">
         <v>40908</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="19">
         <f>SPF_growth!K126/100</f>
         <v>6.4498981568823499E-3</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="18">
         <v>1.97</v>
       </c>
     </row>
@@ -9153,11 +9150,11 @@
       <c r="B127" s="2">
         <v>40999</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="19">
         <f>SPF_growth!K127/100</f>
         <v>6.6747721160693718E-3</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="18">
         <v>2.08</v>
       </c>
     </row>
@@ -9168,11 +9165,11 @@
       <c r="B128" s="2">
         <v>41090</v>
       </c>
-      <c r="C128" s="20">
+      <c r="C128" s="19">
         <f>SPF_growth!K128/100</f>
         <v>6.537478811403874E-3</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="18">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -9183,11 +9180,11 @@
       <c r="B129" s="2">
         <v>41182</v>
       </c>
-      <c r="C129" s="20">
+      <c r="C129" s="19">
         <f>SPF_growth!K129/100</f>
         <v>5.5623034792899873E-3</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="18">
         <v>2.11</v>
       </c>
     </row>
@@ -9198,11 +9195,11 @@
       <c r="B130" s="2">
         <v>41274</v>
       </c>
-      <c r="C130" s="20">
+      <c r="C130" s="19">
         <f>SPF_growth!K130/100</f>
         <v>5.7743478978349305E-3</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="18">
         <v>2.19</v>
       </c>
     </row>
@@ -9213,11 +9210,11 @@
       <c r="B131" s="2">
         <v>41364</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="19">
         <f>SPF_growth!K131/100</f>
         <v>6.3249343229643262E-3</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D131" s="18">
         <v>2.1</v>
       </c>
     </row>
@@ -9228,11 +9225,11 @@
       <c r="B132" s="2">
         <v>41455</v>
       </c>
-      <c r="C132" s="20">
+      <c r="C132" s="19">
         <f>SPF_growth!K132/100</f>
         <v>6.6621833905278205E-3</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="18">
         <v>2.04</v>
       </c>
     </row>
@@ -9243,11 +9240,11 @@
       <c r="B133" s="2">
         <v>41547</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="19">
         <f>SPF_growth!K133/100</f>
         <v>6.7248360627107928E-3</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D133" s="18">
         <v>1.86</v>
       </c>
     </row>
@@ -9258,11 +9255,11 @@
       <c r="B134" s="2">
         <v>41639</v>
       </c>
-      <c r="C134" s="20">
+      <c r="C134" s="19">
         <f>SPF_growth!K134/100</f>
         <v>6.9936364774929594E-3</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="18">
         <v>1.98</v>
       </c>
     </row>
@@ -9273,11 +9270,11 @@
       <c r="B135" s="2">
         <v>41729</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="19">
         <f>SPF_growth!K135/100</f>
         <v>7.343627884191184E-3</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="18">
         <v>1.89</v>
       </c>
     </row>
@@ -9288,11 +9285,11 @@
       <c r="B136" s="2">
         <v>41820</v>
       </c>
-      <c r="C136" s="20">
+      <c r="C136" s="19">
         <f>SPF_growth!K136/100</f>
         <v>7.7436990780379578E-3</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="18">
         <v>1.96</v>
       </c>
     </row>
@@ -9303,11 +9300,11 @@
       <c r="B137" s="2">
         <v>41912</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="19">
         <f>SPF_growth!K137/100</f>
         <v>7.6687366054348782E-3</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="18">
         <v>2.1</v>
       </c>
     </row>
@@ -9318,11 +9315,11 @@
       <c r="B138" s="2">
         <v>42004</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="19">
         <f>SPF_growth!K138/100</f>
         <v>7.268691307859898E-3</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="18">
         <v>1.92</v>
       </c>
     </row>
@@ -9333,11 +9330,11 @@
       <c r="B139" s="2">
         <v>42094</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="19">
         <f>SPF_growth!K139/100</f>
         <v>7.2187159691659009E-3</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="18">
         <v>1.89</v>
       </c>
     </row>
@@ -9348,11 +9345,11 @@
       <c r="B140" s="2">
         <v>42185</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="19">
         <f>SPF_growth!K140/100</f>
         <v>7.1747712375660466E-3</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="18">
         <v>1.97</v>
       </c>
     </row>
@@ -9363,11 +9360,11 @@
       <c r="B141" s="2">
         <v>42277</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="19">
         <f>SPF_growth!K141/100</f>
         <v>6.9499970517634679E-3</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="18">
         <v>2.04</v>
       </c>
     </row>
@@ -9378,11 +9375,11 @@
       <c r="B142" s="2">
         <v>42369</v>
       </c>
-      <c r="C142" s="20">
+      <c r="C142" s="19">
         <f>SPF_growth!K142/100</f>
         <v>6.543647354068538E-3</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="18">
         <v>2.04</v>
       </c>
     </row>
@@ -9393,11 +9390,11 @@
       <c r="B143" s="2">
         <v>42460</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="19">
         <f>SPF_growth!K143/100</f>
         <v>6.03122229410058E-3</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="18">
         <v>1.98</v>
       </c>
     </row>
@@ -9408,11 +9405,11 @@
       <c r="B144" s="2">
         <v>42551</v>
       </c>
-      <c r="C144" s="20">
+      <c r="C144" s="19">
         <f>SPF_growth!K144/100</f>
         <v>5.9687462139725866E-3</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="18">
         <v>2.06</v>
       </c>
     </row>
@@ -9423,11 +9420,11 @@
       <c r="B145" s="2">
         <v>42643</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="19">
         <f>SPF_growth!K145/100</f>
         <v>5.6249825964032052E-3</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="18">
         <v>2.23</v>
       </c>
     </row>
@@ -9438,11 +9435,11 @@
       <c r="B146" s="2">
         <v>42735</v>
       </c>
-      <c r="C146" s="20">
+      <c r="C146" s="19">
         <f>SPF_growth!K146/100</f>
         <v>5.5187463676455994E-3</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="18">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -9453,11 +9450,11 @@
       <c r="B147" s="2">
         <v>42825</v>
       </c>
-      <c r="C147" s="20">
+      <c r="C147" s="19">
         <f>SPF_growth!K147/100</f>
         <v>5.8124890472608381E-3</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="18">
         <v>2.36</v>
       </c>
     </row>
@@ -9468,11 +9465,11 @@
       <c r="B148" s="2">
         <v>42916</v>
       </c>
-      <c r="C148" s="20">
+      <c r="C148" s="19">
         <f>SPF_growth!K148/100</f>
         <v>6.3061991793602612E-3</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="18">
         <v>2.2799999999999998</v>
       </c>
     </row>
@@ -9483,11 +9480,11 @@
       <c r="B149" s="2">
         <v>43008</v>
       </c>
-      <c r="C149" s="20">
+      <c r="C149" s="19">
         <f>SPF_growth!K149/100</f>
         <v>5.8749818241192742E-3</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="18">
         <v>2.21</v>
       </c>
     </row>
@@ -9498,11 +9495,11 @@
       <c r="B150" s="2">
         <v>43100</v>
       </c>
-      <c r="C150" s="20">
+      <c r="C150" s="19">
         <f>SPF_growth!K150/100</f>
         <v>5.7937115634378866E-3</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="18">
         <v>2.09</v>
       </c>
     </row>
@@ -9513,11 +9510,11 @@
       <c r="B151" s="2">
         <v>43190</v>
       </c>
-      <c r="C151" s="20">
+      <c r="C151" s="19">
         <f>SPF_growth!K151/100</f>
         <v>6.5998859078126859E-3</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="18">
         <v>2.21</v>
       </c>
     </row>
@@ -9528,11 +9525,11 @@
       <c r="B152" s="2">
         <v>43281</v>
       </c>
-      <c r="C152" s="20">
+      <c r="C152" s="19">
         <f>SPF_growth!K152/100</f>
         <v>6.7373568240012283E-3</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="18">
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -9543,11 +9540,11 @@
       <c r="B153" s="2">
         <v>43373</v>
       </c>
-      <c r="C153" s="20">
+      <c r="C153" s="19">
         <f>SPF_growth!K153/100</f>
         <v>6.6312159467654119E-3</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="18">
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -9558,11 +9555,11 @@
       <c r="B154" s="2">
         <v>43465</v>
       </c>
-      <c r="C154" s="20">
+      <c r="C154" s="19">
         <f>SPF_growth!K154/100</f>
         <v>6.0186597195719393E-3</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="18">
         <v>2.37</v>
       </c>
     </row>
@@ -9573,11 +9570,11 @@
       <c r="B155" s="2">
         <v>43555</v>
       </c>
-      <c r="C155" s="20">
+      <c r="C155" s="19">
         <f>SPF_growth!K155/100</f>
         <v>5.5562194855705016E-3</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="18">
         <v>2.27</v>
       </c>
     </row>
@@ -9588,11 +9585,11 @@
       <c r="B156" s="2">
         <v>43646</v>
       </c>
-      <c r="C156" s="20">
+      <c r="C156" s="19">
         <f>SPF_growth!K156/100</f>
         <v>5.0061460695227655E-3</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="18">
         <v>2.09</v>
       </c>
     </row>
@@ -9603,11 +9600,11 @@
       <c r="B157" s="2">
         <v>43738</v>
       </c>
-      <c r="C157" s="20">
+      <c r="C157" s="19">
         <f>SPF_growth!K157/100</f>
         <v>4.9312488533208576E-3</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="18">
         <v>2.04</v>
       </c>
     </row>
@@ -9618,11 +9615,11 @@
       <c r="B158" s="2">
         <v>43830</v>
       </c>
-      <c r="C158" s="20">
+      <c r="C158" s="19">
         <f>SPF_growth!K158/100</f>
         <v>4.4749716883540902E-3</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="18">
         <v>2.14</v>
       </c>
     </row>
@@ -9633,11 +9630,11 @@
       <c r="B159" s="2">
         <v>43921</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="19">
         <f>SPF_growth!K159/100</f>
         <v>5.2749883424711985E-3</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D159" s="18">
         <v>2.16</v>
       </c>
     </row>
@@ -9648,16 +9645,16 @@
       <c r="B160" s="2">
         <v>44012</v>
       </c>
-      <c r="C160" s="20">
+      <c r="C160" s="19">
         <f>SPF_growth!K160/100</f>
         <v>1.7458158103855315E-2</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="18">
         <v>1.86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9670,7 +9667,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="11" width="8.83203125" style="15"/>
+    <col min="7" max="11" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10016,23 +10013,23 @@
       <c r="F19" s="4">
         <v>3.4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f>1+C19/400</f>
         <v>1.0096750000000001</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <f t="shared" ref="H19:J19" si="0">1+D19/400</f>
         <v>1.0098750000000001</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <f t="shared" si="0"/>
         <v>1.008875</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
         <v>1.0085</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <f>100*(PRODUCT(G19:J19)^(1/4)-1)</f>
         <v>0.92310923276235357</v>
       </c>
@@ -10056,23 +10053,23 @@
       <c r="F20" s="4">
         <v>2.82</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f t="shared" ref="G20:G83" si="1">1+C20/400</f>
         <v>1.0118</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <f t="shared" ref="H20:H83" si="2">1+D20/400</f>
         <v>1.007125</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <f t="shared" ref="I20:I83" si="3">1+E20/400</f>
         <v>1.0062</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <f t="shared" ref="J20:J83" si="4">1+F20/400</f>
         <v>1.00705</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" ref="K20:K83" si="5">100*(PRODUCT(G20:J20)^(1/4)-1)</f>
         <v>0.80413554106493201</v>
       </c>
@@ -10096,23 +10093,23 @@
       <c r="F21" s="4">
         <v>2.82</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f t="shared" si="1"/>
         <v>1.0087250000000001</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <f t="shared" si="2"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <f t="shared" si="3"/>
         <v>1.0056</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <f t="shared" si="4"/>
         <v>1.00705</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <f t="shared" si="5"/>
         <v>0.68305145354505825</v>
       </c>
@@ -10136,23 +10133,23 @@
       <c r="F22" s="4">
         <v>3.03</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <f t="shared" si="1"/>
         <v>1.00715</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <f t="shared" si="2"/>
         <v>1.0065</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <f t="shared" si="3"/>
         <v>1.0082249999999999</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <f t="shared" si="4"/>
         <v>1.0075750000000001</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <f t="shared" si="5"/>
         <v>0.7362304176079304</v>
       </c>
@@ -10176,23 +10173,23 @@
       <c r="F23" s="4">
         <v>1.41</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="1"/>
         <v>1.007525</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <f t="shared" si="3"/>
         <v>1.00685</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <f t="shared" si="4"/>
         <v>1.003525</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <f t="shared" si="5"/>
         <v>0.6972346001087093</v>
       </c>
@@ -10216,23 +10213,23 @@
       <c r="F24" s="4">
         <v>3.46</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f t="shared" si="1"/>
         <v>1.0091749999999999</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <f t="shared" si="2"/>
         <v>1.0098</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="15">
         <f t="shared" si="3"/>
         <v>1.008875</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <f t="shared" si="4"/>
         <v>1.00865</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="5"/>
         <v>0.91249075773616184</v>
       </c>
@@ -10256,23 +10253,23 @@
       <c r="F25" s="4">
         <v>3.01</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f t="shared" si="1"/>
         <v>1.0076750000000001</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f t="shared" si="2"/>
         <v>1.0065249999999999</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <f t="shared" si="3"/>
         <v>1.0075750000000001</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <f t="shared" si="4"/>
         <v>1.007525</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <f t="shared" si="5"/>
         <v>0.73248926246487489</v>
       </c>
@@ -10296,23 +10293,23 @@
       <c r="F26" s="4">
         <v>3.7</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f t="shared" si="1"/>
         <v>1.0057</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <f t="shared" si="2"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <f t="shared" si="3"/>
         <v>1.007125</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <f t="shared" si="4"/>
         <v>1.00925</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <f t="shared" si="5"/>
         <v>0.72429386776224902</v>
       </c>
@@ -10336,23 +10333,23 @@
       <c r="F27" s="4">
         <v>2.76</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <f t="shared" si="1"/>
         <v>1.0072000000000001</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <f t="shared" si="2"/>
         <v>1.0072749999999999</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <f t="shared" si="3"/>
         <v>1.0079</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <f t="shared" si="4"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="5"/>
         <v>0.73186843382373468</v>
       </c>
@@ -10376,23 +10373,23 @@
       <c r="F28" s="4">
         <v>2.79</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f t="shared" si="1"/>
         <v>1.006575</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <f t="shared" si="2"/>
         <v>1.0080249999999999</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="15">
         <f t="shared" si="3"/>
         <v>1.0066250000000001</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <f t="shared" si="4"/>
         <v>1.006975</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <f t="shared" si="5"/>
         <v>0.70498309407629467</v>
       </c>
@@ -10416,23 +10413,23 @@
       <c r="F29" s="4">
         <v>2.96</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <f t="shared" si="1"/>
         <v>1.0072749999999999</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <f t="shared" si="2"/>
         <v>1.0088250000000001</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <f t="shared" si="3"/>
         <v>1.0047999999999999</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <f t="shared" si="4"/>
         <v>1.0074000000000001</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <f t="shared" si="5"/>
         <v>0.70739588682282584</v>
       </c>
@@ -10456,23 +10453,23 @@
       <c r="F30" s="4">
         <v>2.37</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <f t="shared" si="1"/>
         <v>1.005225</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <f t="shared" si="2"/>
         <v>1.002075</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <f t="shared" si="3"/>
         <v>1.0085999999999999</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <f t="shared" si="4"/>
         <v>1.005925</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <f t="shared" si="5"/>
         <v>0.54535653638578818</v>
       </c>
@@ -10496,23 +10493,23 @@
       <c r="F31" s="4">
         <v>3.19</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <f t="shared" si="1"/>
         <v>1.0015499999999999</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <f t="shared" si="2"/>
         <v>1.0044</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
         <f t="shared" si="3"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <f t="shared" si="4"/>
         <v>1.0079750000000001</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <f t="shared" si="5"/>
         <v>0.53529086139807447</v>
       </c>
@@ -10536,23 +10533,23 @@
       <c r="F32" s="4">
         <v>1.91</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <f t="shared" si="1"/>
         <v>1.0064249999999999</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="15">
         <f t="shared" si="2"/>
         <v>1.0084500000000001</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <f t="shared" si="3"/>
         <v>1.00685</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <f t="shared" si="4"/>
         <v>1.004775</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <f t="shared" si="5"/>
         <v>0.66241501398442981</v>
       </c>
@@ -10576,23 +10573,23 @@
       <c r="F33" s="4">
         <v>1.92</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f t="shared" si="1"/>
         <v>1.0073000000000001</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <f t="shared" si="2"/>
         <v>1.0061249999999999</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="15">
         <f t="shared" si="3"/>
         <v>1.007825</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="15">
         <f t="shared" si="4"/>
         <v>1.0047999999999999</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <f t="shared" si="5"/>
         <v>0.65118259928413913</v>
       </c>
@@ -10616,23 +10613,23 @@
       <c r="F34" s="4">
         <v>1.07</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f t="shared" si="1"/>
         <v>1.00905</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f t="shared" si="2"/>
         <v>1.007325</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <f t="shared" si="3"/>
         <v>1.0061500000000001</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <f t="shared" si="4"/>
         <v>1.002675</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f t="shared" si="5"/>
         <v>0.62972928794058358</v>
       </c>
@@ -10656,23 +10653,23 @@
       <c r="F35" s="4">
         <v>1.36</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <f t="shared" si="1"/>
         <v>1.0052000000000001</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <f t="shared" si="2"/>
         <v>1.0049250000000001</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <f t="shared" si="3"/>
         <v>1.002675</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <f t="shared" si="4"/>
         <v>1.0034000000000001</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <f t="shared" si="5"/>
         <v>0.40494520061742367</v>
       </c>
@@ -10696,23 +10693,23 @@
       <c r="F36" s="4">
         <v>1.21</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <f t="shared" si="1"/>
         <v>1.003925</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <f t="shared" si="2"/>
         <v>1.0029250000000001</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <f t="shared" si="3"/>
         <v>1.0053749999999999</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <f t="shared" si="4"/>
         <v>1.0030250000000001</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <f t="shared" si="5"/>
         <v>0.3812019316142834</v>
       </c>
@@ -10736,23 +10733,23 @@
       <c r="F37" s="4">
         <v>3.97</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <f t="shared" si="1"/>
         <v>1.004875</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <f t="shared" si="2"/>
         <v>1.0024249999999999</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="15">
         <f t="shared" si="3"/>
         <v>1.0038499999999999</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="15">
         <f t="shared" si="4"/>
         <v>1.009925</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="15">
         <f t="shared" si="5"/>
         <v>0.5264785151075202</v>
       </c>
@@ -10776,23 +10773,23 @@
       <c r="F38" s="4">
         <v>2.34</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <f t="shared" si="1"/>
         <v>1.0043500000000001</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <f t="shared" si="2"/>
         <v>1.0039750000000001</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="15">
         <f t="shared" si="3"/>
         <v>1.0058750000000001</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <f t="shared" si="4"/>
         <v>1.0058499999999999</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <f t="shared" si="5"/>
         <v>0.50121317528326603</v>
       </c>
@@ -10816,23 +10813,23 @@
       <c r="F39" s="4">
         <v>2.23</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <f t="shared" si="1"/>
         <v>1.0048250000000001</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="15">
         <f t="shared" si="2"/>
         <v>1.006</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="15">
         <f t="shared" si="3"/>
         <v>1.0066999999999999</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <f t="shared" si="4"/>
         <v>1.0055750000000001</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <f t="shared" si="5"/>
         <v>0.5774770227933379</v>
       </c>
@@ -10856,23 +10853,23 @@
       <c r="F40" s="4">
         <v>2.64</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <f t="shared" si="1"/>
         <v>1.0062249999999999</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="15">
         <f t="shared" si="2"/>
         <v>1.00475</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="15">
         <f t="shared" si="3"/>
         <v>1.00735</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="15">
         <f t="shared" si="4"/>
         <v>1.0065999999999999</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="15">
         <f t="shared" si="5"/>
         <v>0.62308049092900664</v>
       </c>
@@ -10896,23 +10893,23 @@
       <c r="F41" s="4">
         <v>2.44</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <f t="shared" si="1"/>
         <v>1.001925</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="15">
         <f t="shared" si="2"/>
         <v>1.0019750000000001</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="15">
         <f t="shared" si="3"/>
         <v>1.0019750000000001</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="15">
         <f t="shared" si="4"/>
         <v>1.0061</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <f t="shared" si="5"/>
         <v>0.29921486625135163</v>
       </c>
@@ -10936,23 +10933,23 @@
       <c r="F42" s="4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <f t="shared" si="1"/>
         <v>0.99770000000000003</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="15">
         <f t="shared" si="2"/>
         <v>1.0003500000000001</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="15">
         <f t="shared" si="3"/>
         <v>1.0032749999999999</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="15">
         <f t="shared" si="4"/>
         <v>1.006175</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <f t="shared" si="5"/>
         <v>0.18699840887628216</v>
       </c>
@@ -10976,23 +10973,23 @@
       <c r="F43" s="4">
         <v>3.21</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <f t="shared" si="1"/>
         <v>1.000475</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="15">
         <f t="shared" si="2"/>
         <v>1.0041500000000001</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="15">
         <f t="shared" si="3"/>
         <v>1.007325</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="15">
         <f t="shared" si="4"/>
         <v>1.0080249999999999</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <f t="shared" si="5"/>
         <v>0.49892985882478147</v>
       </c>
@@ -11016,23 +11013,23 @@
       <c r="F44" s="4">
         <v>3.12</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <f t="shared" si="1"/>
         <v>1.00465</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="15">
         <f t="shared" si="2"/>
         <v>1.00705</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="15">
         <f t="shared" si="3"/>
         <v>1.0075499999999999</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="15">
         <f t="shared" si="4"/>
         <v>1.0078</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="15">
         <f t="shared" si="5"/>
         <v>0.67617243643305347</v>
       </c>
@@ -11056,23 +11053,23 @@
       <c r="F45" s="4">
         <v>2.76</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <f t="shared" si="1"/>
         <v>1.0062249999999999</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <f t="shared" si="2"/>
         <v>1.0071000000000001</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="15">
         <f t="shared" si="3"/>
         <v>1.007925</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="15">
         <f t="shared" si="4"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <f t="shared" si="5"/>
         <v>0.70373174696498619</v>
       </c>
@@ -11096,23 +11093,23 @@
       <c r="F46" s="4">
         <v>2.67</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <f t="shared" si="1"/>
         <v>1.005425</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <f t="shared" si="2"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <f t="shared" si="3"/>
         <v>1.0085500000000001</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="15">
         <f t="shared" si="4"/>
         <v>1.006675</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <f t="shared" si="5"/>
         <v>0.70368503741999877</v>
       </c>
@@ -11136,23 +11133,23 @@
       <c r="F47" s="4">
         <v>2.76</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <f t="shared" si="1"/>
         <v>1.0057750000000001</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="15">
         <f t="shared" si="2"/>
         <v>1.0076499999999999</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="15">
         <f t="shared" si="3"/>
         <v>1.0080499999999999</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="15">
         <f t="shared" si="4"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="15">
         <f t="shared" si="5"/>
         <v>0.70933774800152616</v>
       </c>
@@ -11176,23 +11173,23 @@
       <c r="F48" s="4">
         <v>3.13</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <f t="shared" si="1"/>
         <v>1.0084249999999999</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="15">
         <f t="shared" si="2"/>
         <v>1.007725</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="15">
         <f t="shared" si="3"/>
         <v>1.0075750000000001</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="15">
         <f t="shared" si="4"/>
         <v>1.007825</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <f t="shared" si="5"/>
         <v>0.78874483082800317</v>
       </c>
@@ -11216,23 +11213,23 @@
       <c r="F49" s="4">
         <v>2.85</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <f t="shared" si="1"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="15">
         <f t="shared" si="2"/>
         <v>1.007925</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="15">
         <f t="shared" si="3"/>
         <v>1.0058</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="15">
         <f t="shared" si="4"/>
         <v>1.007125</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <f t="shared" si="5"/>
         <v>0.67183843321154679</v>
       </c>
@@ -11256,23 +11253,23 @@
       <c r="F50" s="4">
         <v>3.33</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <f t="shared" si="1"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="15">
         <f t="shared" si="2"/>
         <v>1.0071000000000001</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="15">
         <f t="shared" si="3"/>
         <v>1.0081500000000001</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="15">
         <f t="shared" si="4"/>
         <v>1.0083249999999999</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="15">
         <f t="shared" si="5"/>
         <v>0.73995781607556488</v>
       </c>
@@ -11296,23 +11293,23 @@
       <c r="F51" s="4">
         <v>2.86</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <f t="shared" si="1"/>
         <v>1.00735</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <f t="shared" si="2"/>
         <v>1.008275</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <f t="shared" si="3"/>
         <v>1.0085</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <f t="shared" si="4"/>
         <v>1.00715</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <f t="shared" si="5"/>
         <v>0.78185838971052135</v>
       </c>
@@ -11336,23 +11333,23 @@
       <c r="F52" s="4">
         <v>2.64</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <f t="shared" si="1"/>
         <v>1.0082249999999999</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="15">
         <f t="shared" si="2"/>
         <v>1.0083500000000001</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="15">
         <f t="shared" si="3"/>
         <v>1.0076499999999999</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="15">
         <f t="shared" si="4"/>
         <v>1.0065999999999999</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="15">
         <f t="shared" si="5"/>
         <v>0.77060129398076604</v>
       </c>
@@ -11376,23 +11373,23 @@
       <c r="F53" s="4">
         <v>2.99</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <f t="shared" si="1"/>
         <v>1.008</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="15">
         <f t="shared" si="2"/>
         <v>1.0067250000000001</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="15">
         <f t="shared" si="3"/>
         <v>1.00725</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
         <f t="shared" si="4"/>
         <v>1.0074749999999999</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="15">
         <f t="shared" si="5"/>
         <v>0.73623960000597233</v>
       </c>
@@ -11416,23 +11413,23 @@
       <c r="F54" s="4">
         <v>2.75</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <f t="shared" si="1"/>
         <v>1.0072000000000001</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="15">
         <f t="shared" si="2"/>
         <v>1.0062249999999999</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="15">
         <f t="shared" si="3"/>
         <v>1.00745</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="15">
         <f t="shared" si="4"/>
         <v>1.006875</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="15">
         <f t="shared" si="5"/>
         <v>0.69373953182720882</v>
       </c>
@@ -11456,23 +11453,23 @@
       <c r="F55" s="4">
         <v>2.41</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="15">
         <f t="shared" si="1"/>
         <v>1.0081500000000001</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="15">
         <f t="shared" si="2"/>
         <v>1.0066250000000001</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="15">
         <f t="shared" si="3"/>
         <v>1.0076499999999999</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="15">
         <f t="shared" si="4"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="15">
         <f t="shared" si="5"/>
         <v>0.71121542451979547</v>
       </c>
@@ -11496,23 +11493,23 @@
       <c r="F56" s="4">
         <v>2.33</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <f t="shared" si="1"/>
         <v>1.007725</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="15">
         <f t="shared" si="2"/>
         <v>1.0070749999999999</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="15">
         <f t="shared" si="3"/>
         <v>1.006275</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="15">
         <f t="shared" si="4"/>
         <v>1.005825</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="15">
         <f t="shared" si="5"/>
         <v>0.6724734925990683</v>
       </c>
@@ -11536,23 +11533,23 @@
       <c r="F57" s="4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <f t="shared" si="1"/>
         <v>1.006475</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="15">
         <f t="shared" si="2"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <f t="shared" si="3"/>
         <v>1.0058750000000001</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <f t="shared" si="4"/>
         <v>1.006375</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <f t="shared" si="5"/>
         <v>0.61874699511825781</v>
       </c>
@@ -11576,23 +11573,23 @@
       <c r="F58" s="4">
         <v>2.42</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="15">
         <f t="shared" si="1"/>
         <v>1.0069999999999999</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="15">
         <f t="shared" si="2"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="15">
         <f t="shared" si="3"/>
         <v>1.0062249999999999</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="15">
         <f t="shared" si="4"/>
         <v>1.0060500000000001</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <f t="shared" si="5"/>
         <v>0.63061654967608849</v>
       </c>
@@ -11616,23 +11613,23 @@
       <c r="F59" s="4">
         <v>2.68</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <f t="shared" si="1"/>
         <v>1.006675</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="15">
         <f t="shared" si="2"/>
         <v>1.0055750000000001</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <f t="shared" si="3"/>
         <v>1.0053000000000001</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <f t="shared" si="4"/>
         <v>1.0066999999999999</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <f t="shared" si="5"/>
         <v>0.60623011217268985</v>
       </c>
@@ -11656,23 +11653,23 @@
       <c r="F60" s="4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <f t="shared" si="1"/>
         <v>1.0057</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <f t="shared" si="2"/>
         <v>1.006975</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <f t="shared" si="3"/>
         <v>1.00685</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="15">
         <f t="shared" si="4"/>
         <v>1.0058</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <f t="shared" si="5"/>
         <v>0.6331080545903145</v>
       </c>
@@ -11696,23 +11693,23 @@
       <c r="F61" s="4">
         <v>2.58</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <f t="shared" si="1"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="15">
         <f t="shared" si="2"/>
         <v>1.00695</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="15">
         <f t="shared" si="3"/>
         <v>1.00665</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="15">
         <f t="shared" si="4"/>
         <v>1.0064500000000001</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <f t="shared" si="5"/>
         <v>0.67374799001742591</v>
       </c>
@@ -11736,23 +11733,23 @@
       <c r="F62" s="4">
         <v>2.33</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="15">
         <f t="shared" si="1"/>
         <v>1.006575</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="15">
         <f t="shared" si="2"/>
         <v>1.0061249999999999</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="15">
         <f t="shared" si="3"/>
         <v>1.0064500000000001</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="15">
         <f t="shared" si="4"/>
         <v>1.005825</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <f t="shared" si="5"/>
         <v>0.62437075477326243</v>
       </c>
@@ -11776,23 +11773,23 @@
       <c r="F63" s="4">
         <v>2.73</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="15">
         <f t="shared" si="1"/>
         <v>1.00515</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H63" s="15">
         <f t="shared" si="2"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="15">
         <f t="shared" si="3"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="15">
         <f t="shared" si="4"/>
         <v>1.0068250000000001</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <f t="shared" si="5"/>
         <v>0.59685755205713953</v>
       </c>
@@ -11816,23 +11813,23 @@
       <c r="F64" s="4">
         <v>1.88</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="15">
         <f t="shared" si="1"/>
         <v>1.005725</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="15">
         <f t="shared" si="2"/>
         <v>1.00465</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="15">
         <f t="shared" si="3"/>
         <v>1.00535</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="15">
         <f t="shared" si="4"/>
         <v>1.0046999999999999</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="15">
         <f t="shared" si="5"/>
         <v>0.51061485916221727</v>
       </c>
@@ -11856,23 +11853,23 @@
       <c r="F65" s="4">
         <v>1.79</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="15">
         <f t="shared" si="1"/>
         <v>1.005925</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H65" s="15">
         <f t="shared" si="2"/>
         <v>1.0052000000000001</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="15">
         <f t="shared" si="3"/>
         <v>1.00475</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="15">
         <f t="shared" si="4"/>
         <v>1.004475</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="15">
         <f t="shared" si="5"/>
         <v>0.50873503970347844</v>
       </c>
@@ -11896,23 +11893,23 @@
       <c r="F66" s="4">
         <v>2.27</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="15">
         <f t="shared" si="1"/>
         <v>1.0061249999999999</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="15">
         <f t="shared" si="2"/>
         <v>1.0051749999999999</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="15">
         <f t="shared" si="3"/>
         <v>1.0050250000000001</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="15">
         <f t="shared" si="4"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="15">
         <f t="shared" si="5"/>
         <v>0.54999064609069226</v>
       </c>
@@ -11936,23 +11933,23 @@
       <c r="F67" s="4">
         <v>2.1</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="15">
         <f t="shared" si="1"/>
         <v>1.005925</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="15">
         <f t="shared" si="2"/>
         <v>1.00505</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="15">
         <f t="shared" si="3"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="15">
         <f t="shared" si="4"/>
         <v>1.00525</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="15">
         <f t="shared" si="5"/>
         <v>0.55436703808635635</v>
       </c>
@@ -11976,23 +11973,23 @@
       <c r="F68" s="4">
         <v>1.87</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="15">
         <f t="shared" si="1"/>
         <v>1.0062500000000001</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="15">
         <f t="shared" si="2"/>
         <v>1.0057750000000001</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="15">
         <f t="shared" si="3"/>
         <v>1.005325</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="15">
         <f t="shared" si="4"/>
         <v>1.004675</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <f t="shared" si="5"/>
         <v>0.55060822588559599</v>
       </c>
@@ -12016,23 +12013,23 @@
       <c r="F69" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="15">
         <f t="shared" si="1"/>
         <v>1.0070250000000001</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="15">
         <f t="shared" si="2"/>
         <v>1.0064249999999999</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="15">
         <f t="shared" si="3"/>
         <v>1.0059</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="15">
         <f t="shared" si="4"/>
         <v>1.0050250000000001</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="15">
         <f t="shared" si="5"/>
         <v>0.60934820113078825</v>
       </c>
@@ -12056,23 +12053,23 @@
       <c r="F70" s="4">
         <v>2.16</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <f t="shared" si="1"/>
         <v>1.0062500000000001</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="15">
         <f t="shared" si="2"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <f t="shared" si="3"/>
         <v>1.0057750000000001</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="15">
         <f t="shared" si="4"/>
         <v>1.0054000000000001</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <f t="shared" si="5"/>
         <v>0.58624505213646927</v>
       </c>
@@ -12096,23 +12093,23 @@
       <c r="F71" s="4">
         <v>2.61</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="15">
         <f t="shared" si="1"/>
         <v>1.0046250000000001</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="15">
         <f t="shared" si="2"/>
         <v>1.005125</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="15">
         <f t="shared" si="3"/>
         <v>1.0062</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="15">
         <f t="shared" si="4"/>
         <v>1.0065249999999999</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="15">
         <f t="shared" si="5"/>
         <v>0.56184528476153073</v>
       </c>
@@ -12136,23 +12133,23 @@
       <c r="F72" s="4">
         <v>2.27</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <f t="shared" si="1"/>
         <v>1.005325</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="15">
         <f t="shared" si="2"/>
         <v>1.005725</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="15">
         <f t="shared" si="3"/>
         <v>1.005725</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="15">
         <f t="shared" si="4"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <f t="shared" si="5"/>
         <v>0.56124860919704034</v>
       </c>
@@ -12176,23 +12173,23 @@
       <c r="F73" s="4">
         <v>2.5</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="15">
         <f t="shared" si="1"/>
         <v>1.0076499999999999</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="15">
         <f t="shared" si="2"/>
         <v>1.0057</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="15">
         <f t="shared" si="3"/>
         <v>1.00515</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="15">
         <f t="shared" si="4"/>
         <v>1.0062500000000001</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="15">
         <f t="shared" si="5"/>
         <v>0.61870707036402184</v>
       </c>
@@ -12216,23 +12213,23 @@
       <c r="F74" s="4">
         <v>2.06</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <f t="shared" si="1"/>
         <v>1.0042</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="15">
         <f t="shared" si="2"/>
         <v>1.0042</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="15">
         <f t="shared" si="3"/>
         <v>1.0051749999999999</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="15">
         <f t="shared" si="4"/>
         <v>1.00515</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="15">
         <f t="shared" si="5"/>
         <v>0.46811346999353631</v>
       </c>
@@ -12256,23 +12253,23 @@
       <c r="F75" s="4">
         <v>2.4</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="15">
         <f t="shared" si="1"/>
         <v>1.006675</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="15">
         <f t="shared" si="2"/>
         <v>1.0048250000000001</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="15">
         <f t="shared" si="3"/>
         <v>1.006</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="15">
         <f t="shared" si="4"/>
         <v>1.006</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="15">
         <f t="shared" si="5"/>
         <v>0.58747795233102806</v>
       </c>
@@ -12296,23 +12293,23 @@
       <c r="F76" s="4">
         <v>3</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <f t="shared" si="1"/>
         <v>1.006975</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="15">
         <f t="shared" si="2"/>
         <v>1.0066999999999999</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="15">
         <f t="shared" si="3"/>
         <v>1.004575</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="15">
         <f t="shared" si="4"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="15">
         <f t="shared" si="5"/>
         <v>0.64368840898705315</v>
       </c>
@@ -12336,23 +12333,23 @@
       <c r="F77" s="4">
         <v>2.5</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="15">
         <f t="shared" si="1"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H77" s="15">
         <f t="shared" si="2"/>
         <v>1.00475</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="15">
         <f t="shared" si="3"/>
         <v>1.0069999999999999</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="15">
         <f t="shared" si="4"/>
         <v>1.0062500000000001</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="15">
         <f t="shared" si="5"/>
         <v>0.63744641358740584</v>
       </c>
@@ -12376,23 +12373,23 @@
       <c r="F78" s="4">
         <v>3.39</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="15">
         <f t="shared" si="1"/>
         <v>1.005625</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="15">
         <f t="shared" si="2"/>
         <v>1.007625</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="15">
         <f t="shared" si="3"/>
         <v>1.0074000000000001</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J78" s="15">
         <f t="shared" si="4"/>
         <v>1.008475</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="15">
         <f t="shared" si="5"/>
         <v>0.72807160968004769</v>
       </c>
@@ -12416,23 +12413,23 @@
       <c r="F79" s="4">
         <v>2.85</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="15">
         <f t="shared" si="1"/>
         <v>1.0077750000000001</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="15">
         <f t="shared" si="2"/>
         <v>1.008175</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="15">
         <f t="shared" si="3"/>
         <v>1.00725</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J79" s="15">
         <f t="shared" si="4"/>
         <v>1.007125</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="15">
         <f t="shared" si="5"/>
         <v>0.75811621767614135</v>
       </c>
@@ -12456,23 +12453,23 @@
       <c r="F80" s="4">
         <v>2.57</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="15">
         <f t="shared" si="1"/>
         <v>1.0089999999999999</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="15">
         <f t="shared" si="2"/>
         <v>1.007725</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I80" s="15">
         <f t="shared" si="3"/>
         <v>1.006475</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J80" s="15">
         <f t="shared" si="4"/>
         <v>1.0064249999999999</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="15">
         <f t="shared" si="5"/>
         <v>0.74056953353818233</v>
       </c>
@@ -12496,23 +12493,23 @@
       <c r="F81" s="4">
         <v>3.21</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="15">
         <f t="shared" si="1"/>
         <v>1.0080499999999999</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="15">
         <f t="shared" si="2"/>
         <v>1.00745</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="15">
         <f t="shared" si="3"/>
         <v>1.00675</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="15">
         <f t="shared" si="4"/>
         <v>1.0080249999999999</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="15">
         <f t="shared" si="5"/>
         <v>0.75686105000138948</v>
       </c>
@@ -12536,23 +12533,23 @@
       <c r="F82" s="4">
         <v>3.2</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="15">
         <f t="shared" si="1"/>
         <v>1.008275</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="15">
         <f t="shared" si="2"/>
         <v>1.008</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="15">
         <f t="shared" si="3"/>
         <v>1.0083249999999999</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J82" s="15">
         <f t="shared" si="4"/>
         <v>1.008</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="15">
         <f t="shared" si="5"/>
         <v>0.81499886860054715</v>
       </c>
@@ -12576,23 +12573,23 @@
       <c r="F83" s="4">
         <v>3.67</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="15">
         <f t="shared" si="1"/>
         <v>1.0054000000000001</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H83" s="15">
         <f t="shared" si="2"/>
         <v>1.008375</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="15">
         <f t="shared" si="3"/>
         <v>1.009125</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="15">
         <f t="shared" si="4"/>
         <v>1.0091749999999999</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="15">
         <f t="shared" si="5"/>
         <v>0.80175650744016558</v>
       </c>
@@ -12616,23 +12613,23 @@
       <c r="F84" s="4">
         <v>3.57</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="15">
         <f t="shared" ref="G84:G147" si="6">1+C84/400</f>
         <v>1.0048999999999999</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H84" s="15">
         <f t="shared" ref="H84:H147" si="7">1+D84/400</f>
         <v>1.0065249999999999</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="15">
         <f t="shared" ref="I84:I147" si="8">1+E84/400</f>
         <v>1.0077499999999999</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J84" s="15">
         <f t="shared" ref="J84:J147" si="9">1+F84/400</f>
         <v>1.0089250000000001</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="15">
         <f t="shared" ref="K84:K147" si="10">100*(PRODUCT(G84:J84)^(1/4)-1)</f>
         <v>0.70238949003273987</v>
       </c>
@@ -12656,23 +12653,23 @@
       <c r="F85" s="4">
         <v>3.91</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="15">
         <f t="shared" si="6"/>
         <v>1.0069250000000001</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H85" s="15">
         <f t="shared" si="7"/>
         <v>1.006775</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="15">
         <f t="shared" si="8"/>
         <v>1.0074749999999999</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="15">
         <f t="shared" si="9"/>
         <v>1.0097750000000001</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="15">
         <f t="shared" si="10"/>
         <v>0.77367802883900882</v>
       </c>
@@ -12696,23 +12693,23 @@
       <c r="F86" s="4">
         <v>4.01</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="15">
         <f t="shared" si="6"/>
         <v>1.0002249999999999</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H86" s="15">
         <f t="shared" si="7"/>
         <v>1.0058750000000001</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="15">
         <f t="shared" si="8"/>
         <v>1.0091000000000001</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="15">
         <f t="shared" si="9"/>
         <v>1.010025</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="15">
         <f t="shared" si="10"/>
         <v>0.62989332866600911</v>
       </c>
@@ -12736,23 +12733,23 @@
       <c r="F87" s="4">
         <v>3.35</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="15">
         <f t="shared" si="6"/>
         <v>1.0065999999999999</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H87" s="15">
         <f t="shared" si="7"/>
         <v>1.0097499999999999</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I87" s="15">
         <f t="shared" si="8"/>
         <v>1.0081</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="15">
         <f t="shared" si="9"/>
         <v>1.008375</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="15">
         <f t="shared" si="10"/>
         <v>0.82056296806840567</v>
       </c>
@@ -12776,23 +12773,23 @@
       <c r="F88" s="4">
         <v>3.61</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="15">
         <f t="shared" si="6"/>
         <v>1.0080750000000001</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H88" s="15">
         <f t="shared" si="7"/>
         <v>1.0085500000000001</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="15">
         <f t="shared" si="8"/>
         <v>1.00875</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J88" s="15">
         <f t="shared" si="9"/>
         <v>1.0090250000000001</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="15">
         <f t="shared" si="10"/>
         <v>0.85999403513785655</v>
       </c>
@@ -12816,23 +12813,23 @@
       <c r="F89" s="4">
         <v>3.66</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="15">
         <f t="shared" si="6"/>
         <v>1.006575</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="15">
         <f t="shared" si="7"/>
         <v>1.0085999999999999</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="15">
         <f t="shared" si="8"/>
         <v>1.007625</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="15">
         <f t="shared" si="9"/>
         <v>1.00915</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="15">
         <f t="shared" si="10"/>
         <v>0.79870220883944132</v>
       </c>
@@ -12856,23 +12853,23 @@
       <c r="F90" s="4">
         <v>4.16</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="15">
         <f t="shared" si="6"/>
         <v>1.0064249999999999</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H90" s="15">
         <f t="shared" si="7"/>
         <v>1.007625</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="15">
         <f t="shared" si="8"/>
         <v>1.0082</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J90" s="15">
         <f t="shared" si="9"/>
         <v>1.0104</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="15">
         <f t="shared" si="10"/>
         <v>0.81614694367966312</v>
       </c>
@@ -12896,23 +12893,23 @@
       <c r="F91" s="4">
         <v>3.82</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="15">
         <f t="shared" si="6"/>
         <v>1.00685</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H91" s="15">
         <f t="shared" si="7"/>
         <v>1.008575</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="15">
         <f t="shared" si="8"/>
         <v>1.0088999999999999</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J91" s="15">
         <f t="shared" si="9"/>
         <v>1.0095499999999999</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="15">
         <f t="shared" si="10"/>
         <v>0.84682556073343296</v>
       </c>
@@ -12936,23 +12933,23 @@
       <c r="F92" s="4">
         <v>3.41</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="15">
         <f t="shared" si="6"/>
         <v>1.0084</v>
       </c>
-      <c r="H92" s="16">
+      <c r="H92" s="15">
         <f t="shared" si="7"/>
         <v>1.0084</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92" s="15">
         <f t="shared" si="8"/>
         <v>1.0100499999999999</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J92" s="15">
         <f t="shared" si="9"/>
         <v>1.0085249999999999</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="15">
         <f t="shared" si="10"/>
         <v>0.88435084553293297</v>
       </c>
@@ -12976,23 +12973,23 @@
       <c r="F93" s="4">
         <v>3.6</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="15">
         <f t="shared" si="6"/>
         <v>1.0096499999999999</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H93" s="15">
         <f t="shared" si="7"/>
         <v>1.009625</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="15">
         <f t="shared" si="8"/>
         <v>1.009625</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="15">
         <f t="shared" si="9"/>
         <v>1.0089999999999999</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="15">
         <f t="shared" si="10"/>
         <v>0.94749626894177208</v>
       </c>
@@ -13016,23 +13013,23 @@
       <c r="F94" s="4">
         <v>3.78</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="15">
         <f t="shared" si="6"/>
         <v>1.0098750000000001</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="15">
         <f t="shared" si="7"/>
         <v>1.0096750000000001</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="15">
         <f t="shared" si="8"/>
         <v>1.0091749999999999</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="15">
         <f t="shared" si="9"/>
         <v>1.00945</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="15">
         <f t="shared" si="10"/>
         <v>0.95437163552321014</v>
       </c>
@@ -13056,23 +13053,23 @@
       <c r="F95" s="4">
         <v>3.65</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="15">
         <f t="shared" si="6"/>
         <v>1.0106999999999999</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H95" s="15">
         <f t="shared" si="7"/>
         <v>1.0098499999999999</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="15">
         <f t="shared" si="8"/>
         <v>1.0102</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="15">
         <f t="shared" si="9"/>
         <v>1.009125</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="15">
         <f t="shared" si="10"/>
         <v>0.99685873278418935</v>
       </c>
@@ -13096,23 +13093,23 @@
       <c r="F96" s="4">
         <v>3.95</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="15">
         <f t="shared" si="6"/>
         <v>1.0103249999999999</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="15">
         <f t="shared" si="7"/>
         <v>1.010025</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="15">
         <f t="shared" si="8"/>
         <v>1.0095000000000001</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J96" s="15">
         <f t="shared" si="9"/>
         <v>1.0098750000000001</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="15">
         <f t="shared" si="10"/>
         <v>0.993120631126021</v>
       </c>
@@ -13136,23 +13133,23 @@
       <c r="F97" s="4">
         <v>3.34</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="15">
         <f t="shared" si="6"/>
         <v>1.0100499999999999</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="15">
         <f t="shared" si="7"/>
         <v>1.0094000000000001</v>
       </c>
-      <c r="I97" s="16">
+      <c r="I97" s="15">
         <f t="shared" si="8"/>
         <v>1.009225</v>
       </c>
-      <c r="J97" s="16">
+      <c r="J97" s="15">
         <f t="shared" si="9"/>
         <v>1.0083500000000001</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="15">
         <f t="shared" si="10"/>
         <v>0.9256067547759983</v>
       </c>
@@ -13176,23 +13173,23 @@
       <c r="F98" s="4">
         <v>3.37</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="15">
         <f t="shared" si="6"/>
         <v>1.0084249999999999</v>
       </c>
-      <c r="H98" s="16">
+      <c r="H98" s="15">
         <f t="shared" si="7"/>
         <v>1.008575</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="15">
         <f t="shared" si="8"/>
         <v>1.008575</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="15">
         <f t="shared" si="9"/>
         <v>1.0084249999999999</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="15">
         <f t="shared" si="10"/>
         <v>0.84999972112047573</v>
       </c>
@@ -13216,23 +13213,23 @@
       <c r="F99" s="4">
         <v>3.57</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="15">
         <f t="shared" si="6"/>
         <v>1.00915</v>
       </c>
-      <c r="H99" s="16">
+      <c r="H99" s="15">
         <f t="shared" si="7"/>
         <v>1.0083</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="15">
         <f t="shared" si="8"/>
         <v>1.008475</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="15">
         <f t="shared" si="9"/>
         <v>1.0089250000000001</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="15">
         <f t="shared" si="10"/>
         <v>0.87124426101865549</v>
       </c>
@@ -13256,23 +13253,23 @@
       <c r="F100" s="4">
         <v>3.38</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="15">
         <f t="shared" si="6"/>
         <v>1.00875</v>
       </c>
-      <c r="H100" s="16">
+      <c r="H100" s="15">
         <f t="shared" si="7"/>
         <v>1.008575</v>
       </c>
-      <c r="I100" s="16">
+      <c r="I100" s="15">
         <f t="shared" si="8"/>
         <v>1.0080750000000001</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="15">
         <f t="shared" si="9"/>
         <v>1.0084500000000001</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="15">
         <f t="shared" si="10"/>
         <v>0.8462469551814511</v>
       </c>
@@ -13296,23 +13293,23 @@
       <c r="F101" s="4">
         <v>3.25</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="15">
         <f t="shared" si="6"/>
         <v>1.0089999999999999</v>
       </c>
-      <c r="H101" s="16">
+      <c r="H101" s="15">
         <f t="shared" si="7"/>
         <v>1.0081500000000001</v>
       </c>
-      <c r="I101" s="16">
+      <c r="I101" s="15">
         <f t="shared" si="8"/>
         <v>1.0084</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101" s="15">
         <f t="shared" si="9"/>
         <v>1.0081249999999999</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="15">
         <f t="shared" si="10"/>
         <v>0.84186884409296336</v>
       </c>
@@ -13336,23 +13333,23 @@
       <c r="F102" s="4">
         <v>3.2</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="15">
         <f t="shared" si="6"/>
         <v>1.0093000000000001</v>
       </c>
-      <c r="H102" s="16">
+      <c r="H102" s="15">
         <f t="shared" si="7"/>
         <v>1.008175</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I102" s="15">
         <f t="shared" si="8"/>
         <v>1.008</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J102" s="15">
         <f t="shared" si="9"/>
         <v>1.008</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="15">
         <f t="shared" si="10"/>
         <v>0.83686041882338191</v>
       </c>
@@ -13376,23 +13373,23 @@
       <c r="F103" s="4">
         <v>3.28</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="15">
         <f t="shared" si="6"/>
         <v>1.008375</v>
       </c>
-      <c r="H103" s="16">
+      <c r="H103" s="15">
         <f t="shared" si="7"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="I103" s="16">
+      <c r="I103" s="15">
         <f t="shared" si="8"/>
         <v>1.0081</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J103" s="15">
         <f t="shared" si="9"/>
         <v>1.0082</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="15">
         <f t="shared" si="10"/>
         <v>0.80436963008880813</v>
       </c>
@@ -13416,23 +13413,23 @@
       <c r="F104" s="4">
         <v>3.02</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="15">
         <f t="shared" si="6"/>
         <v>1.0077499999999999</v>
       </c>
-      <c r="H104" s="16">
+      <c r="H104" s="15">
         <f t="shared" si="7"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="15">
         <f t="shared" si="8"/>
         <v>1.007225</v>
       </c>
-      <c r="J104" s="16">
+      <c r="J104" s="15">
         <f t="shared" si="9"/>
         <v>1.0075499999999999</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="15">
         <f t="shared" si="10"/>
         <v>0.75062325715924416</v>
       </c>
@@ -13456,23 +13453,23 @@
       <c r="F105" s="4">
         <v>2.97</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="15">
         <f t="shared" si="6"/>
         <v>1.0071749999999999</v>
       </c>
-      <c r="H105" s="16">
+      <c r="H105" s="15">
         <f t="shared" si="7"/>
         <v>1.0071749999999999</v>
       </c>
-      <c r="I105" s="16">
+      <c r="I105" s="15">
         <f t="shared" si="8"/>
         <v>1.0068250000000001</v>
       </c>
-      <c r="J105" s="16">
+      <c r="J105" s="15">
         <f t="shared" si="9"/>
         <v>1.007425</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="15">
         <f t="shared" si="10"/>
         <v>0.71499773483414408</v>
       </c>
@@ -13496,23 +13493,23 @@
       <c r="F106" s="4">
         <v>2.9</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="15">
         <f t="shared" si="6"/>
         <v>1.0067999999999999</v>
       </c>
-      <c r="H106" s="16">
+      <c r="H106" s="15">
         <f t="shared" si="7"/>
         <v>1.00715</v>
       </c>
-      <c r="I106" s="16">
+      <c r="I106" s="15">
         <f t="shared" si="8"/>
         <v>1.00735</v>
       </c>
-      <c r="J106" s="16">
+      <c r="J106" s="15">
         <f t="shared" si="9"/>
         <v>1.00725</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="15">
         <f t="shared" si="10"/>
         <v>0.71374786656293043</v>
       </c>
@@ -13536,23 +13533,23 @@
       <c r="F107" s="4">
         <v>3.06</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107" s="15">
         <f t="shared" si="6"/>
         <v>1.0068250000000001</v>
       </c>
-      <c r="H107" s="16">
+      <c r="H107" s="15">
         <f t="shared" si="7"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="I107" s="16">
+      <c r="I107" s="15">
         <f t="shared" si="8"/>
         <v>1.0079499999999999</v>
       </c>
-      <c r="J107" s="16">
+      <c r="J107" s="15">
         <f t="shared" si="9"/>
         <v>1.0076499999999999</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="15">
         <f t="shared" si="10"/>
         <v>0.74811657137521248</v>
       </c>
@@ -13576,23 +13573,23 @@
       <c r="F108" s="4">
         <v>3</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="15">
         <f t="shared" si="6"/>
         <v>1.0065</v>
       </c>
-      <c r="H108" s="16">
+      <c r="H108" s="15">
         <f t="shared" si="7"/>
         <v>1.00715</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="15">
         <f t="shared" si="8"/>
         <v>1.0072749999999999</v>
       </c>
-      <c r="J108" s="16">
+      <c r="J108" s="15">
         <f t="shared" si="9"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="15">
         <f t="shared" si="10"/>
         <v>0.71061813537347529</v>
       </c>
@@ -13616,23 +13613,23 @@
       <c r="F109" s="4">
         <v>2.67</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="15">
         <f t="shared" si="6"/>
         <v>1.00665</v>
       </c>
-      <c r="H109" s="16">
+      <c r="H109" s="15">
         <f t="shared" si="7"/>
         <v>1.0066999999999999</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="15">
         <f t="shared" si="8"/>
         <v>1.0073000000000001</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="15">
         <f t="shared" si="9"/>
         <v>1.006675</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="15">
         <f t="shared" si="10"/>
         <v>0.68312134796624235</v>
       </c>
@@ -13656,23 +13653,23 @@
       <c r="F110" s="4">
         <v>2.79</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G110" s="15">
         <f t="shared" si="6"/>
         <v>1.0054749999999999</v>
       </c>
-      <c r="H110" s="16">
+      <c r="H110" s="15">
         <f t="shared" si="7"/>
         <v>1.0057499999999999</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="15">
         <f t="shared" si="8"/>
         <v>1.0067250000000001</v>
       </c>
-      <c r="J110" s="16">
+      <c r="J110" s="15">
         <f t="shared" si="9"/>
         <v>1.006975</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="15">
         <f t="shared" si="10"/>
         <v>0.62310511792726953</v>
       </c>
@@ -13696,23 +13693,23 @@
       <c r="F111" s="4">
         <v>3.12</v>
       </c>
-      <c r="G111" s="16">
+      <c r="G111" s="15">
         <f t="shared" si="6"/>
         <v>1.003325</v>
       </c>
-      <c r="H111" s="16">
+      <c r="H111" s="15">
         <f t="shared" si="7"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="I111" s="16">
+      <c r="I111" s="15">
         <f t="shared" si="8"/>
         <v>1.00705</v>
       </c>
-      <c r="J111" s="16">
+      <c r="J111" s="15">
         <f t="shared" si="9"/>
         <v>1.0078</v>
       </c>
-      <c r="K111" s="16">
+      <c r="K111" s="15">
         <f t="shared" si="10"/>
         <v>0.62672552093250289</v>
       </c>
@@ -13736,23 +13733,23 @@
       <c r="F112" s="4">
         <v>2.52</v>
       </c>
-      <c r="G112" s="16">
+      <c r="G112" s="15">
         <f t="shared" si="6"/>
         <v>1.0042500000000001</v>
       </c>
-      <c r="H112" s="16">
+      <c r="H112" s="15">
         <f t="shared" si="7"/>
         <v>1.0045999999999999</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="15">
         <f t="shared" si="8"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="J112" s="16">
+      <c r="J112" s="15">
         <f t="shared" si="9"/>
         <v>1.0063</v>
       </c>
-      <c r="K112" s="16">
+      <c r="K112" s="15">
         <f t="shared" si="10"/>
         <v>0.52059145264187201</v>
       </c>
@@ -13776,23 +13773,23 @@
       <c r="F113" s="4">
         <v>2.54</v>
       </c>
-      <c r="G113" s="16">
+      <c r="G113" s="15">
         <f t="shared" si="6"/>
         <v>1.0017750000000001</v>
       </c>
-      <c r="H113" s="16">
+      <c r="H113" s="15">
         <f t="shared" si="7"/>
         <v>1.003925</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="15">
         <f t="shared" si="8"/>
         <v>1.0052749999999999</v>
       </c>
-      <c r="J113" s="16">
+      <c r="J113" s="15">
         <f t="shared" si="9"/>
         <v>1.0063500000000001</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="15">
         <f t="shared" si="10"/>
         <v>0.43297974658751404</v>
       </c>
@@ -13816,23 +13813,23 @@
       <c r="F114" s="4">
         <v>2.27</v>
       </c>
-      <c r="G114" s="16">
+      <c r="G114" s="15">
         <f t="shared" si="6"/>
         <v>0.99724999999999997</v>
       </c>
-      <c r="H114" s="16">
+      <c r="H114" s="15">
         <f t="shared" si="7"/>
         <v>1.0021</v>
       </c>
-      <c r="I114" s="16">
+      <c r="I114" s="15">
         <f t="shared" si="8"/>
         <v>1.0021500000000001</v>
       </c>
-      <c r="J114" s="16">
+      <c r="J114" s="15">
         <f t="shared" si="9"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="15">
         <f t="shared" si="10"/>
         <v>0.17892637742296102</v>
       </c>
@@ -13856,23 +13853,23 @@
       <c r="F115" s="4">
         <v>2.44</v>
       </c>
-      <c r="G115" s="16">
+      <c r="G115" s="15">
         <f t="shared" si="6"/>
         <v>0.99562499999999998</v>
       </c>
-      <c r="H115" s="16">
+      <c r="H115" s="15">
         <f t="shared" si="7"/>
         <v>1.0024249999999999</v>
       </c>
-      <c r="I115" s="16">
+      <c r="I115" s="15">
         <f t="shared" si="8"/>
         <v>1.0044249999999999</v>
       </c>
-      <c r="J115" s="16">
+      <c r="J115" s="15">
         <f t="shared" si="9"/>
         <v>1.0061</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="15">
         <f t="shared" si="10"/>
         <v>0.21358213498881007</v>
       </c>
@@ -13896,23 +13893,23 @@
       <c r="F116" s="4">
         <v>2.92</v>
       </c>
-      <c r="G116" s="16">
+      <c r="G116" s="15">
         <f t="shared" si="6"/>
         <v>1.001125</v>
       </c>
-      <c r="H116" s="16">
+      <c r="H116" s="15">
         <f t="shared" si="7"/>
         <v>1.0043249999999999</v>
       </c>
-      <c r="I116" s="16">
+      <c r="I116" s="15">
         <f t="shared" si="8"/>
         <v>1.0055499999999999</v>
       </c>
-      <c r="J116" s="16">
+      <c r="J116" s="15">
         <f t="shared" si="9"/>
         <v>1.0073000000000001</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="15">
         <f t="shared" si="10"/>
         <v>0.45724672696989543</v>
       </c>
@@ -13936,23 +13933,23 @@
       <c r="F117" s="4">
         <v>2.58</v>
       </c>
-      <c r="G117" s="16">
+      <c r="G117" s="15">
         <f t="shared" si="6"/>
         <v>1.005425</v>
       </c>
-      <c r="H117" s="16">
+      <c r="H117" s="15">
         <f t="shared" si="7"/>
         <v>1.0063</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="15">
         <f t="shared" si="8"/>
         <v>1.0070250000000001</v>
       </c>
-      <c r="J117" s="16">
+      <c r="J117" s="15">
         <f t="shared" si="9"/>
         <v>1.0064500000000001</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="15">
         <f t="shared" si="10"/>
         <v>0.62998367858191351</v>
       </c>
@@ -13976,23 +13973,23 @@
       <c r="F118" s="4">
         <v>2.93</v>
       </c>
-      <c r="G118" s="16">
+      <c r="G118" s="15">
         <f t="shared" si="6"/>
         <v>1.0057499999999999</v>
       </c>
-      <c r="H118" s="16">
+      <c r="H118" s="15">
         <f t="shared" si="7"/>
         <v>1.0061</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="15">
         <f t="shared" si="8"/>
         <v>1.0064</v>
       </c>
-      <c r="J118" s="16">
+      <c r="J118" s="15">
         <f t="shared" si="9"/>
         <v>1.007325</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="15">
         <f t="shared" si="10"/>
         <v>0.63935801326362451</v>
       </c>
@@ -14016,23 +14013,23 @@
       <c r="F119" s="4">
         <v>2.69</v>
       </c>
-      <c r="G119" s="16">
+      <c r="G119" s="15">
         <f t="shared" si="6"/>
         <v>1.0067999999999999</v>
       </c>
-      <c r="H119" s="16">
+      <c r="H119" s="15">
         <f t="shared" si="7"/>
         <v>1.0067999999999999</v>
       </c>
-      <c r="I119" s="16">
+      <c r="I119" s="15">
         <f t="shared" si="8"/>
         <v>1.0067999999999999</v>
       </c>
-      <c r="J119" s="16">
+      <c r="J119" s="15">
         <f t="shared" si="9"/>
         <v>1.0067250000000001</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="15">
         <f t="shared" si="10"/>
         <v>0.67812494761951836</v>
       </c>
@@ -14056,23 +14053,23 @@
       <c r="F120" s="4">
         <v>3.25</v>
       </c>
-      <c r="G120" s="16">
+      <c r="G120" s="15">
         <f t="shared" si="6"/>
         <v>1.0082249999999999</v>
       </c>
-      <c r="H120" s="16">
+      <c r="H120" s="15">
         <f t="shared" si="7"/>
         <v>1.0070749999999999</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120" s="15">
         <f t="shared" si="8"/>
         <v>1.006775</v>
       </c>
-      <c r="J120" s="16">
+      <c r="J120" s="15">
         <f t="shared" si="9"/>
         <v>1.0081249999999999</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="15">
         <f t="shared" si="10"/>
         <v>0.75497999417120099</v>
       </c>
@@ -14096,23 +14093,23 @@
       <c r="F121" s="4">
         <v>2.97</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G121" s="15">
         <f t="shared" si="6"/>
         <v>1.0070749999999999</v>
       </c>
-      <c r="H121" s="16">
+      <c r="H121" s="15">
         <f t="shared" si="7"/>
         <v>1.0056499999999999</v>
       </c>
-      <c r="I121" s="16">
+      <c r="I121" s="15">
         <f t="shared" si="8"/>
         <v>1.0077750000000001</v>
       </c>
-      <c r="J121" s="16">
+      <c r="J121" s="15">
         <f t="shared" si="9"/>
         <v>1.007425</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="15">
         <f t="shared" si="10"/>
         <v>0.69809261182789406</v>
       </c>
@@ -14136,23 +14133,23 @@
       <c r="F122" s="4">
         <v>2.89</v>
       </c>
-      <c r="G122" s="16">
+      <c r="G122" s="15">
         <f t="shared" si="6"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="H122" s="16">
+      <c r="H122" s="15">
         <f t="shared" si="7"/>
         <v>1.00675</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="15">
         <f t="shared" si="8"/>
         <v>1.0082249999999999</v>
       </c>
-      <c r="J122" s="16">
+      <c r="J122" s="15">
         <f t="shared" si="9"/>
         <v>1.007225</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="15">
         <f t="shared" si="10"/>
         <v>0.7037163570069227</v>
       </c>
@@ -14176,23 +14173,23 @@
       <c r="F123" s="4">
         <v>3.08</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="15">
         <f t="shared" si="6"/>
         <v>1.008775</v>
       </c>
-      <c r="H123" s="16">
+      <c r="H123" s="15">
         <f t="shared" si="7"/>
         <v>1.0076750000000001</v>
       </c>
-      <c r="I123" s="16">
+      <c r="I123" s="15">
         <f t="shared" si="8"/>
         <v>1.0084</v>
       </c>
-      <c r="J123" s="16">
+      <c r="J123" s="15">
         <f t="shared" si="9"/>
         <v>1.0077</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="15">
         <f t="shared" si="10"/>
         <v>0.81373908181443522</v>
       </c>
@@ -14216,23 +14213,23 @@
       <c r="F124" s="4">
         <v>2.48</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="15">
         <f t="shared" si="6"/>
         <v>1.0085999999999999</v>
       </c>
-      <c r="H124" s="16">
+      <c r="H124" s="15">
         <f t="shared" si="7"/>
         <v>1.00865</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="15">
         <f t="shared" si="8"/>
         <v>1.007225</v>
       </c>
-      <c r="J124" s="16">
+      <c r="J124" s="15">
         <f t="shared" si="9"/>
         <v>1.0062</v>
       </c>
-      <c r="K124" s="16">
+      <c r="K124" s="15">
         <f t="shared" si="10"/>
         <v>0.76682308294573343</v>
       </c>
@@ -14256,23 +14253,23 @@
       <c r="F125" s="4">
         <v>3.15</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125" s="15">
         <f t="shared" si="6"/>
         <v>1.0064249999999999</v>
       </c>
-      <c r="H125" s="16">
+      <c r="H125" s="15">
         <f t="shared" si="7"/>
         <v>1.0055000000000001</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I125" s="15">
         <f t="shared" si="8"/>
         <v>1.00725</v>
       </c>
-      <c r="J125" s="16">
+      <c r="J125" s="15">
         <f t="shared" si="9"/>
         <v>1.0078750000000001</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="15">
         <f t="shared" si="10"/>
         <v>0.67621047359829323</v>
       </c>
@@ -14296,23 +14293,23 @@
       <c r="F126" s="4">
         <v>2.74</v>
       </c>
-      <c r="G126" s="16">
+      <c r="G126" s="15">
         <f t="shared" si="6"/>
         <v>1.0060500000000001</v>
       </c>
-      <c r="H126" s="16">
+      <c r="H126" s="15">
         <f t="shared" si="7"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="I126" s="16">
+      <c r="I126" s="15">
         <f t="shared" si="8"/>
         <v>1.00695</v>
       </c>
-      <c r="J126" s="16">
+      <c r="J126" s="15">
         <f t="shared" si="9"/>
         <v>1.00685</v>
       </c>
-      <c r="K126" s="16">
+      <c r="K126" s="15">
         <f t="shared" si="10"/>
         <v>0.64498981568823499</v>
       </c>
@@ -14336,23 +14333,23 @@
       <c r="F127" s="4">
         <v>2.79</v>
       </c>
-      <c r="G127" s="16">
+      <c r="G127" s="15">
         <f t="shared" si="6"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="H127" s="16">
+      <c r="H127" s="15">
         <f t="shared" si="7"/>
         <v>1.0065249999999999</v>
       </c>
-      <c r="I127" s="16">
+      <c r="I127" s="15">
         <f t="shared" si="8"/>
         <v>1.007525</v>
       </c>
-      <c r="J127" s="16">
+      <c r="J127" s="15">
         <f t="shared" si="9"/>
         <v>1.006975</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="15">
         <f t="shared" si="10"/>
         <v>0.66747721160693718</v>
       </c>
@@ -14376,23 +14373,23 @@
       <c r="F128" s="4">
         <v>2.74</v>
       </c>
-      <c r="G128" s="16">
+      <c r="G128" s="15">
         <f t="shared" si="6"/>
         <v>1.006275</v>
       </c>
-      <c r="H128" s="16">
+      <c r="H128" s="15">
         <f t="shared" si="7"/>
         <v>1.0065500000000001</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="15">
         <f t="shared" si="8"/>
         <v>1.006475</v>
       </c>
-      <c r="J128" s="16">
+      <c r="J128" s="15">
         <f t="shared" si="9"/>
         <v>1.00685</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="15">
         <f t="shared" si="10"/>
         <v>0.6537478811403874</v>
       </c>
@@ -14416,23 +14413,23 @@
       <c r="F129" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G129" s="16">
+      <c r="G129" s="15">
         <f t="shared" si="6"/>
         <v>1.0055000000000001</v>
       </c>
-      <c r="H129" s="16">
+      <c r="H129" s="15">
         <f t="shared" si="7"/>
         <v>1.0045999999999999</v>
       </c>
-      <c r="I129" s="16">
+      <c r="I129" s="15">
         <f t="shared" si="8"/>
         <v>1.005825</v>
       </c>
-      <c r="J129" s="16">
+      <c r="J129" s="15">
         <f t="shared" si="9"/>
         <v>1.0063249999999999</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="15">
         <f t="shared" si="10"/>
         <v>0.55623034792899873</v>
       </c>
@@ -14456,23 +14453,23 @@
       <c r="F130" s="4">
         <v>2.81</v>
       </c>
-      <c r="G130" s="16">
+      <c r="G130" s="15">
         <f t="shared" si="6"/>
         <v>1.0042500000000001</v>
       </c>
-      <c r="H130" s="16">
+      <c r="H130" s="15">
         <f t="shared" si="7"/>
         <v>1.0051000000000001</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="15">
         <f t="shared" si="8"/>
         <v>1.0067250000000001</v>
       </c>
-      <c r="J130" s="16">
+      <c r="J130" s="15">
         <f t="shared" si="9"/>
         <v>1.0070250000000001</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="15">
         <f t="shared" si="10"/>
         <v>0.57743478978349305</v>
       </c>
@@ -14496,23 +14493,23 @@
       <c r="F131" s="4">
         <v>2.73</v>
       </c>
-      <c r="G131" s="16">
+      <c r="G131" s="15">
         <f t="shared" si="6"/>
         <v>1.0058499999999999</v>
       </c>
-      <c r="H131" s="16">
+      <c r="H131" s="15">
         <f t="shared" si="7"/>
         <v>1.006475</v>
       </c>
-      <c r="I131" s="16">
+      <c r="I131" s="15">
         <f t="shared" si="8"/>
         <v>1.0061500000000001</v>
       </c>
-      <c r="J131" s="16">
+      <c r="J131" s="15">
         <f t="shared" si="9"/>
         <v>1.0068250000000001</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="15">
         <f t="shared" si="10"/>
         <v>0.63249343229643262</v>
       </c>
@@ -14536,23 +14533,23 @@
       <c r="F132" s="4">
         <v>3.17</v>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="15">
         <f t="shared" si="6"/>
         <v>1.0058499999999999</v>
       </c>
-      <c r="H132" s="16">
+      <c r="H132" s="15">
         <f t="shared" si="7"/>
         <v>1.00675</v>
       </c>
-      <c r="I132" s="16">
+      <c r="I132" s="15">
         <f t="shared" si="8"/>
         <v>1.0061249999999999</v>
       </c>
-      <c r="J132" s="16">
+      <c r="J132" s="15">
         <f t="shared" si="9"/>
         <v>1.007925</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="15">
         <f t="shared" si="10"/>
         <v>0.66621833905278205</v>
       </c>
@@ -14576,23 +14573,23 @@
       <c r="F133" s="4">
         <v>2.89</v>
       </c>
-      <c r="G133" s="16">
+      <c r="G133" s="15">
         <f t="shared" si="6"/>
         <v>1.005825</v>
       </c>
-      <c r="H133" s="16">
+      <c r="H133" s="15">
         <f t="shared" si="7"/>
         <v>1.0066250000000001</v>
       </c>
-      <c r="I133" s="16">
+      <c r="I133" s="15">
         <f t="shared" si="8"/>
         <v>1.007225</v>
       </c>
-      <c r="J133" s="16">
+      <c r="J133" s="15">
         <f t="shared" si="9"/>
         <v>1.007225</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="15">
         <f t="shared" si="10"/>
         <v>0.67248360627107928</v>
       </c>
@@ -14616,23 +14613,23 @@
       <c r="F134" s="4">
         <v>2.93</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="15">
         <f t="shared" si="6"/>
         <v>1.006175</v>
       </c>
-      <c r="H134" s="16">
+      <c r="H134" s="15">
         <f t="shared" si="7"/>
         <v>1.00715</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="15">
         <f t="shared" si="8"/>
         <v>1.007325</v>
       </c>
-      <c r="J134" s="16">
+      <c r="J134" s="15">
         <f t="shared" si="9"/>
         <v>1.007325</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="15">
         <f t="shared" si="10"/>
         <v>0.69936364774929594</v>
       </c>
@@ -14656,23 +14653,23 @@
       <c r="F135" s="4">
         <v>3.23</v>
       </c>
-      <c r="G135" s="16">
+      <c r="G135" s="15">
         <f t="shared" si="6"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="H135" s="16">
+      <c r="H135" s="15">
         <f t="shared" si="7"/>
         <v>1.0070250000000001</v>
       </c>
-      <c r="I135" s="16">
+      <c r="I135" s="15">
         <f t="shared" si="8"/>
         <v>1.006775</v>
       </c>
-      <c r="J135" s="16">
+      <c r="J135" s="15">
         <f t="shared" si="9"/>
         <v>1.0080750000000001</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="15">
         <f t="shared" si="10"/>
         <v>0.7343627884191184</v>
       </c>
@@ -14696,23 +14693,23 @@
       <c r="F136" s="4">
         <v>3.14</v>
       </c>
-      <c r="G136" s="16">
+      <c r="G136" s="15">
         <f t="shared" si="6"/>
         <v>1.007225</v>
       </c>
-      <c r="H136" s="16">
+      <c r="H136" s="15">
         <f t="shared" si="7"/>
         <v>1.0081</v>
       </c>
-      <c r="I136" s="16">
+      <c r="I136" s="15">
         <f t="shared" si="8"/>
         <v>1.0078</v>
       </c>
-      <c r="J136" s="16">
+      <c r="J136" s="15">
         <f t="shared" si="9"/>
         <v>1.0078499999999999</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="15">
         <f t="shared" si="10"/>
         <v>0.77436990780379578</v>
       </c>
@@ -14736,23 +14733,23 @@
       <c r="F137" s="4">
         <v>2.96</v>
       </c>
-      <c r="G137" s="16">
+      <c r="G137" s="15">
         <f t="shared" si="6"/>
         <v>1.0076750000000001</v>
       </c>
-      <c r="H137" s="16">
+      <c r="H137" s="15">
         <f t="shared" si="7"/>
         <v>1.007825</v>
       </c>
-      <c r="I137" s="16">
+      <c r="I137" s="15">
         <f t="shared" si="8"/>
         <v>1.0077750000000001</v>
       </c>
-      <c r="J137" s="16">
+      <c r="J137" s="15">
         <f t="shared" si="9"/>
         <v>1.0074000000000001</v>
       </c>
-      <c r="K137" s="16">
+      <c r="K137" s="15">
         <f t="shared" si="10"/>
         <v>0.76687366054348782</v>
       </c>
@@ -14776,23 +14773,23 @@
       <c r="F138" s="4">
         <v>2.99</v>
       </c>
-      <c r="G138" s="16">
+      <c r="G138" s="15">
         <f t="shared" si="6"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="H138" s="16">
+      <c r="H138" s="15">
         <f t="shared" si="7"/>
         <v>1.007725</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="15">
         <f t="shared" si="8"/>
         <v>1.006975</v>
       </c>
-      <c r="J138" s="16">
+      <c r="J138" s="15">
         <f t="shared" si="9"/>
         <v>1.0074749999999999</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="15">
         <f t="shared" si="10"/>
         <v>0.7268691307859898</v>
       </c>
@@ -14816,23 +14813,23 @@
       <c r="F139" s="4">
         <v>2.94</v>
       </c>
-      <c r="G139" s="16">
+      <c r="G139" s="15">
         <f t="shared" si="6"/>
         <v>1.0075750000000001</v>
       </c>
-      <c r="H139" s="16">
+      <c r="H139" s="15">
         <f t="shared" si="7"/>
         <v>1.00705</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I139" s="15">
         <f t="shared" si="8"/>
         <v>1.0068999999999999</v>
       </c>
-      <c r="J139" s="16">
+      <c r="J139" s="15">
         <f t="shared" si="9"/>
         <v>1.00735</v>
       </c>
-      <c r="K139" s="16">
+      <c r="K139" s="15">
         <f t="shared" si="10"/>
         <v>0.72187159691659009</v>
       </c>
@@ -14856,23 +14853,23 @@
       <c r="F140" s="4">
         <v>3.04</v>
       </c>
-      <c r="G140" s="16">
+      <c r="G140" s="15">
         <f t="shared" si="6"/>
         <v>1.0078</v>
       </c>
-      <c r="H140" s="16">
+      <c r="H140" s="15">
         <f t="shared" si="7"/>
         <v>1.00725</v>
       </c>
-      <c r="I140" s="16">
+      <c r="I140" s="15">
         <f t="shared" si="8"/>
         <v>1.0060500000000001</v>
       </c>
-      <c r="J140" s="16">
+      <c r="J140" s="15">
         <f t="shared" si="9"/>
         <v>1.0076000000000001</v>
       </c>
-      <c r="K140" s="16">
+      <c r="K140" s="15">
         <f t="shared" si="10"/>
         <v>0.71747712375660466</v>
       </c>
@@ -14896,23 +14893,23 @@
       <c r="F141" s="4">
         <v>2.75</v>
       </c>
-      <c r="G141" s="16">
+      <c r="G141" s="15">
         <f t="shared" si="6"/>
         <v>1.00705</v>
       </c>
-      <c r="H141" s="16">
+      <c r="H141" s="15">
         <f t="shared" si="7"/>
         <v>1.0069999999999999</v>
       </c>
-      <c r="I141" s="16">
+      <c r="I141" s="15">
         <f t="shared" si="8"/>
         <v>1.006875</v>
       </c>
-      <c r="J141" s="16">
+      <c r="J141" s="15">
         <f t="shared" si="9"/>
         <v>1.006875</v>
       </c>
-      <c r="K141" s="16">
+      <c r="K141" s="15">
         <f t="shared" si="10"/>
         <v>0.69499970517634679</v>
       </c>
@@ -14936,23 +14933,23 @@
       <c r="F142" s="4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G142" s="16">
+      <c r="G142" s="15">
         <f t="shared" si="6"/>
         <v>1.006275</v>
       </c>
-      <c r="H142" s="16">
+      <c r="H142" s="15">
         <f t="shared" si="7"/>
         <v>1.0065500000000001</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="15">
         <f t="shared" si="8"/>
         <v>1.0072749999999999</v>
       </c>
-      <c r="J142" s="16">
+      <c r="J142" s="15">
         <f t="shared" si="9"/>
         <v>1.0060750000000001</v>
       </c>
-      <c r="K142" s="16">
+      <c r="K142" s="15">
         <f t="shared" si="10"/>
         <v>0.6543647354068538</v>
       </c>
@@ -14976,23 +14973,23 @@
       <c r="F143" s="4">
         <v>2.39</v>
       </c>
-      <c r="G143" s="16">
+      <c r="G143" s="15">
         <f t="shared" si="6"/>
         <v>1.006175</v>
       </c>
-      <c r="H143" s="16">
+      <c r="H143" s="15">
         <f t="shared" si="7"/>
         <v>1.0056750000000001</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="15">
         <f t="shared" si="8"/>
         <v>1.0063</v>
       </c>
-      <c r="J143" s="16">
+      <c r="J143" s="15">
         <f t="shared" si="9"/>
         <v>1.0059750000000001</v>
       </c>
-      <c r="K143" s="16">
+      <c r="K143" s="15">
         <f t="shared" si="10"/>
         <v>0.603122229410058</v>
       </c>
@@ -15016,23 +15013,23 @@
       <c r="F144" s="4">
         <v>2.41</v>
       </c>
-      <c r="G144" s="16">
+      <c r="G144" s="15">
         <f t="shared" si="6"/>
         <v>1.0060750000000001</v>
       </c>
-      <c r="H144" s="16">
+      <c r="H144" s="15">
         <f t="shared" si="7"/>
         <v>1.0058499999999999</v>
       </c>
-      <c r="I144" s="16">
+      <c r="I144" s="15">
         <f t="shared" si="8"/>
         <v>1.005925</v>
       </c>
-      <c r="J144" s="16">
+      <c r="J144" s="15">
         <f t="shared" si="9"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="K144" s="16">
+      <c r="K144" s="15">
         <f t="shared" si="10"/>
         <v>0.59687462139725866</v>
       </c>
@@ -15056,23 +15053,23 @@
       <c r="F145" s="4">
         <v>2.13</v>
       </c>
-      <c r="G145" s="16">
+      <c r="G145" s="15">
         <f t="shared" si="6"/>
         <v>1.005825</v>
       </c>
-      <c r="H145" s="16">
+      <c r="H145" s="15">
         <f t="shared" si="7"/>
         <v>1.005725</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="15">
         <f t="shared" si="8"/>
         <v>1.005625</v>
       </c>
-      <c r="J145" s="16">
+      <c r="J145" s="15">
         <f t="shared" si="9"/>
         <v>1.005325</v>
       </c>
-      <c r="K145" s="16">
+      <c r="K145" s="15">
         <f t="shared" si="10"/>
         <v>0.56249825964032052</v>
       </c>
@@ -15096,23 +15093,23 @@
       <c r="F146" s="4">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G146" s="16">
+      <c r="G146" s="15">
         <f t="shared" si="6"/>
         <v>1.0056</v>
       </c>
-      <c r="H146" s="16">
+      <c r="H146" s="15">
         <f t="shared" si="7"/>
         <v>1.0054000000000001</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="15">
         <f t="shared" si="8"/>
         <v>1.0054749999999999</v>
       </c>
-      <c r="J146" s="16">
+      <c r="J146" s="15">
         <f t="shared" si="9"/>
         <v>1.0056</v>
       </c>
-      <c r="K146" s="16">
+      <c r="K146" s="15">
         <f t="shared" si="10"/>
         <v>0.55187463676455994</v>
       </c>
@@ -15136,23 +15133,23 @@
       <c r="F147" s="4">
         <v>2.23</v>
       </c>
-      <c r="G147" s="16">
+      <c r="G147" s="15">
         <f t="shared" si="6"/>
         <v>1.0058</v>
       </c>
-      <c r="H147" s="16">
+      <c r="H147" s="15">
         <f t="shared" si="7"/>
         <v>1.005925</v>
       </c>
-      <c r="I147" s="16">
+      <c r="I147" s="15">
         <f t="shared" si="8"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="J147" s="16">
+      <c r="J147" s="15">
         <f t="shared" si="9"/>
         <v>1.0055750000000001</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="15">
         <f t="shared" si="10"/>
         <v>0.58124890472608381</v>
       </c>
@@ -15176,23 +15173,23 @@
       <c r="F148" s="4">
         <v>2.74</v>
       </c>
-      <c r="G148" s="16">
+      <c r="G148" s="15">
         <f t="shared" ref="G148:G159" si="11">1+C148/400</f>
         <v>1.0062249999999999</v>
       </c>
-      <c r="H148" s="16">
+      <c r="H148" s="15">
         <f t="shared" ref="H148:H159" si="12">1+D148/400</f>
         <v>1.0060750000000001</v>
       </c>
-      <c r="I148" s="16">
+      <c r="I148" s="15">
         <f t="shared" ref="I148:I159" si="13">1+E148/400</f>
         <v>1.0060750000000001</v>
       </c>
-      <c r="J148" s="16">
+      <c r="J148" s="15">
         <f t="shared" ref="J148:J159" si="14">1+F148/400</f>
         <v>1.00685</v>
       </c>
-      <c r="K148" s="16">
+      <c r="K148" s="15">
         <f t="shared" ref="K148:K159" si="15">100*(PRODUCT(G148:J148)^(1/4)-1)</f>
         <v>0.63061991793602612</v>
       </c>
@@ -15216,23 +15213,23 @@
       <c r="F149" s="4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G149" s="16">
+      <c r="G149" s="15">
         <f t="shared" si="11"/>
         <v>1.0058499999999999</v>
       </c>
-      <c r="H149" s="16">
+      <c r="H149" s="15">
         <f t="shared" si="12"/>
         <v>1.0055750000000001</v>
       </c>
-      <c r="I149" s="16">
+      <c r="I149" s="15">
         <f t="shared" si="13"/>
         <v>1.006</v>
       </c>
-      <c r="J149" s="16">
+      <c r="J149" s="15">
         <f t="shared" si="14"/>
         <v>1.0060750000000001</v>
       </c>
-      <c r="K149" s="16">
+      <c r="K149" s="15">
         <f t="shared" si="15"/>
         <v>0.58749818241192742</v>
       </c>
@@ -15256,23 +15253,23 @@
       <c r="F150" s="4">
         <v>2.35</v>
       </c>
-      <c r="G150" s="16">
+      <c r="G150" s="15">
         <f t="shared" si="11"/>
         <v>1.0060500000000001</v>
       </c>
-      <c r="H150" s="16">
+      <c r="H150" s="15">
         <f t="shared" si="12"/>
         <v>1.005925</v>
       </c>
-      <c r="I150" s="16">
+      <c r="I150" s="15">
         <f t="shared" si="13"/>
         <v>1.005325</v>
       </c>
-      <c r="J150" s="16">
+      <c r="J150" s="15">
         <f t="shared" si="14"/>
         <v>1.0058750000000001</v>
       </c>
-      <c r="K150" s="16">
+      <c r="K150" s="15">
         <f t="shared" si="15"/>
         <v>0.57937115634378866</v>
       </c>
@@ -15296,23 +15293,23 @@
       <c r="F151" s="4">
         <v>2.4</v>
       </c>
-      <c r="G151" s="16">
+      <c r="G151" s="15">
         <f t="shared" si="11"/>
         <v>1.0071749999999999</v>
       </c>
-      <c r="H151" s="16">
+      <c r="H151" s="15">
         <f t="shared" si="12"/>
         <v>1.00695</v>
       </c>
-      <c r="I151" s="16">
+      <c r="I151" s="15">
         <f t="shared" si="13"/>
         <v>1.006275</v>
       </c>
-      <c r="J151" s="16">
+      <c r="J151" s="15">
         <f t="shared" si="14"/>
         <v>1.006</v>
       </c>
-      <c r="K151" s="16">
+      <c r="K151" s="15">
         <f t="shared" si="15"/>
         <v>0.65998859078126859</v>
       </c>
@@ -15336,23 +15333,23 @@
       <c r="F152" s="4">
         <v>2.59</v>
       </c>
-      <c r="G152" s="16">
+      <c r="G152" s="15">
         <f t="shared" si="11"/>
         <v>1.00745</v>
       </c>
-      <c r="H152" s="16">
+      <c r="H152" s="15">
         <f t="shared" si="12"/>
         <v>1.0069999999999999</v>
       </c>
-      <c r="I152" s="16">
+      <c r="I152" s="15">
         <f t="shared" si="13"/>
         <v>1.0060249999999999</v>
       </c>
-      <c r="J152" s="16">
+      <c r="J152" s="15">
         <f t="shared" si="14"/>
         <v>1.006475</v>
       </c>
-      <c r="K152" s="16">
+      <c r="K152" s="15">
         <f t="shared" si="15"/>
         <v>0.67373568240012283</v>
       </c>
@@ -15376,23 +15373,23 @@
       <c r="F153" s="4">
         <v>2.62</v>
       </c>
-      <c r="G153" s="16">
+      <c r="G153" s="15">
         <f t="shared" si="11"/>
         <v>1.00695</v>
       </c>
-      <c r="H153" s="16">
+      <c r="H153" s="15">
         <f t="shared" si="12"/>
         <v>1.0062500000000001</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="15">
         <f t="shared" si="13"/>
         <v>1.006775</v>
       </c>
-      <c r="J153" s="16">
+      <c r="J153" s="15">
         <f t="shared" si="14"/>
         <v>1.0065500000000001</v>
       </c>
-      <c r="K153" s="16">
+      <c r="K153" s="15">
         <f t="shared" si="15"/>
         <v>0.66312159467654119</v>
       </c>
@@ -15416,23 +15413,23 @@
       <c r="F154" s="4">
         <v>2.21</v>
       </c>
-      <c r="G154" s="16">
+      <c r="G154" s="15">
         <f t="shared" si="11"/>
         <v>1.0059499999999999</v>
       </c>
-      <c r="H154" s="16">
+      <c r="H154" s="15">
         <f t="shared" si="12"/>
         <v>1.0066999999999999</v>
       </c>
-      <c r="I154" s="16">
+      <c r="I154" s="15">
         <f t="shared" si="13"/>
         <v>1.0059</v>
       </c>
-      <c r="J154" s="16">
+      <c r="J154" s="15">
         <f t="shared" si="14"/>
         <v>1.005525</v>
       </c>
-      <c r="K154" s="16">
+      <c r="K154" s="15">
         <f t="shared" si="15"/>
         <v>0.60186597195719393</v>
       </c>
@@ -15456,23 +15453,23 @@
       <c r="F155" s="4">
         <v>2.08</v>
       </c>
-      <c r="G155" s="16">
+      <c r="G155" s="15">
         <f t="shared" si="11"/>
         <v>1.0059</v>
       </c>
-      <c r="H155" s="16">
+      <c r="H155" s="15">
         <f t="shared" si="12"/>
         <v>1.0055499999999999</v>
       </c>
-      <c r="I155" s="16">
+      <c r="I155" s="15">
         <f t="shared" si="13"/>
         <v>1.0055750000000001</v>
       </c>
-      <c r="J155" s="16">
+      <c r="J155" s="15">
         <f t="shared" si="14"/>
         <v>1.0052000000000001</v>
       </c>
-      <c r="K155" s="16">
+      <c r="K155" s="15">
         <f t="shared" si="15"/>
         <v>0.55562194855705016</v>
       </c>
@@ -15496,23 +15493,23 @@
       <c r="F156" s="4">
         <v>1.72</v>
       </c>
-      <c r="G156" s="16">
+      <c r="G156" s="15">
         <f t="shared" si="11"/>
         <v>1.0053000000000001</v>
       </c>
-      <c r="H156" s="16">
+      <c r="H156" s="15">
         <f t="shared" si="12"/>
         <v>1.0055000000000001</v>
       </c>
-      <c r="I156" s="16">
+      <c r="I156" s="15">
         <f t="shared" si="13"/>
         <v>1.0049250000000001</v>
       </c>
-      <c r="J156" s="16">
+      <c r="J156" s="15">
         <f t="shared" si="14"/>
         <v>1.0043</v>
       </c>
-      <c r="K156" s="16">
+      <c r="K156" s="15">
         <f t="shared" si="15"/>
         <v>0.50061460695227655</v>
       </c>
@@ -15536,23 +15533,23 @@
       <c r="F157" s="4">
         <v>1.96</v>
       </c>
-      <c r="G157" s="16">
+      <c r="G157" s="15">
         <f t="shared" si="11"/>
         <v>1.0049999999999999</v>
       </c>
-      <c r="H157" s="16">
+      <c r="H157" s="15">
         <f t="shared" si="12"/>
         <v>1.004875</v>
       </c>
-      <c r="I157" s="16">
+      <c r="I157" s="15">
         <f t="shared" si="13"/>
         <v>1.00495</v>
       </c>
-      <c r="J157" s="16">
+      <c r="J157" s="15">
         <f t="shared" si="14"/>
         <v>1.0048999999999999</v>
       </c>
-      <c r="K157" s="16">
+      <c r="K157" s="15">
         <f t="shared" si="15"/>
         <v>0.49312488533208576</v>
       </c>
@@ -15576,23 +15573,23 @@
       <c r="F158" s="4">
         <v>1.86</v>
       </c>
-      <c r="G158" s="16">
+      <c r="G158" s="15">
         <f t="shared" si="11"/>
         <v>1.00475</v>
       </c>
-      <c r="H158" s="16">
+      <c r="H158" s="15">
         <f t="shared" si="12"/>
         <v>1.0043500000000001</v>
       </c>
-      <c r="I158" s="16">
+      <c r="I158" s="15">
         <f t="shared" si="13"/>
         <v>1.0041500000000001</v>
       </c>
-      <c r="J158" s="16">
+      <c r="J158" s="15">
         <f t="shared" si="14"/>
         <v>1.00465</v>
       </c>
-      <c r="K158" s="16">
+      <c r="K158" s="15">
         <f t="shared" si="15"/>
         <v>0.44749716883540902</v>
       </c>
@@ -15616,29 +15613,29 @@
       <c r="F159" s="4">
         <v>2.19</v>
       </c>
-      <c r="G159" s="16">
+      <c r="G159" s="15">
         <f t="shared" si="11"/>
         <v>1.00525</v>
       </c>
-      <c r="H159" s="16">
+      <c r="H159" s="15">
         <f t="shared" si="12"/>
         <v>1.00505</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="15">
         <f t="shared" si="13"/>
         <v>1.005325</v>
       </c>
-      <c r="J159" s="16">
+      <c r="J159" s="15">
         <f t="shared" si="14"/>
         <v>1.0054749999999999</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="15">
         <f t="shared" si="15"/>
         <v>0.52749883424711985</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="16" t="s">
         <v>642</v>
       </c>
       <c r="B160" s="2">
@@ -15656,29 +15653,29 @@
       <c r="F160" s="4">
         <v>4.09</v>
       </c>
-      <c r="G160" s="16">
+      <c r="G160" s="15">
         <f t="shared" ref="G160" si="16">1+C160/400</f>
         <v>1.026575</v>
       </c>
-      <c r="H160" s="16">
+      <c r="H160" s="15">
         <f t="shared" ref="H160" si="17">1+D160/400</f>
         <v>1.0162</v>
       </c>
-      <c r="I160" s="16">
+      <c r="I160" s="15">
         <f t="shared" ref="I160" si="18">1+E160/400</f>
         <v>1.0168999999999999</v>
       </c>
-      <c r="J160" s="16">
+      <c r="J160" s="15">
         <f t="shared" ref="J160" si="19">1+F160/400</f>
         <v>1.0102249999999999</v>
       </c>
-      <c r="K160" s="16">
+      <c r="K160" s="15">
         <f t="shared" ref="K160" si="20">100*(PRODUCT(G160:J160)^(1/4)-1)</f>
         <v>1.7458158103855315</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15743,9 +15740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -15756,8 +15751,8 @@
     <col min="992" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:951" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:951" s="20" customFormat="1" ht="16" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>647</v>
       </c>
       <c r="B1" s="12">
@@ -16302,6 +16297,33 @@
       </c>
       <c r="FZ1" s="13">
         <v>43738</v>
+      </c>
+      <c r="GA1" s="13">
+        <v>43769</v>
+      </c>
+      <c r="GB1" s="13">
+        <v>43799</v>
+      </c>
+      <c r="GC1" s="13">
+        <v>43830</v>
+      </c>
+      <c r="GD1" s="13">
+        <v>43861</v>
+      </c>
+      <c r="GE1" s="13">
+        <v>43890</v>
+      </c>
+      <c r="GF1" s="13">
+        <v>43921</v>
+      </c>
+      <c r="GG1" s="13">
+        <v>43951</v>
+      </c>
+      <c r="GH1" s="13">
+        <v>43982</v>
+      </c>
+      <c r="GI1" s="13">
+        <v>44012</v>
       </c>
     </row>
     <row r="2" spans="1:951">
@@ -16788,68 +16810,95 @@
       <c r="FE2" s="11">
         <v>43100</v>
       </c>
-      <c r="FF2" s="9">
+      <c r="FF2" s="11">
         <v>43131</v>
       </c>
-      <c r="FG2" s="9">
+      <c r="FG2" s="11">
         <v>43159</v>
       </c>
-      <c r="FH2" s="9">
+      <c r="FH2" s="11">
         <v>43190</v>
       </c>
-      <c r="FI2" s="9">
+      <c r="FI2" s="11">
         <v>43220</v>
       </c>
-      <c r="FJ2" s="9">
+      <c r="FJ2" s="11">
         <v>43251</v>
       </c>
-      <c r="FK2" s="9">
+      <c r="FK2" s="11">
         <v>43281</v>
       </c>
-      <c r="FL2" s="9">
+      <c r="FL2" s="11">
         <v>43312</v>
       </c>
-      <c r="FM2" s="9">
+      <c r="FM2" s="11">
         <v>43343</v>
       </c>
-      <c r="FN2" s="9">
+      <c r="FN2" s="11">
         <v>43373</v>
       </c>
-      <c r="FO2" s="9">
+      <c r="FO2" s="11">
         <v>43404</v>
       </c>
-      <c r="FP2" s="9">
+      <c r="FP2" s="11">
         <v>43434</v>
       </c>
-      <c r="FQ2" s="9">
+      <c r="FQ2" s="11">
         <v>43465</v>
       </c>
-      <c r="FR2" s="9">
+      <c r="FR2" s="11">
         <v>43496</v>
       </c>
-      <c r="FS2" s="9">
+      <c r="FS2" s="11">
         <v>43524</v>
       </c>
-      <c r="FT2" s="9">
+      <c r="FT2" s="11">
         <v>43555</v>
       </c>
-      <c r="FU2" s="9">
+      <c r="FU2" s="11">
         <v>43585</v>
       </c>
-      <c r="FV2" s="9">
+      <c r="FV2" s="11">
         <v>43616</v>
       </c>
-      <c r="FW2" s="9">
+      <c r="FW2" s="11">
         <v>43646</v>
       </c>
-      <c r="FX2" s="9">
+      <c r="FX2" s="11">
         <v>43677</v>
       </c>
-      <c r="FY2" s="9">
+      <c r="FY2" s="11">
         <v>43708</v>
       </c>
-      <c r="FZ2" s="9">
+      <c r="FZ2" s="11">
         <v>43738</v>
+      </c>
+      <c r="GA2" s="11">
+        <v>43769</v>
+      </c>
+      <c r="GB2" s="11">
+        <v>43799</v>
+      </c>
+      <c r="GC2" s="11">
+        <v>43830</v>
+      </c>
+      <c r="GD2" s="11">
+        <v>43861</v>
+      </c>
+      <c r="GE2" s="11">
+        <v>43890</v>
+      </c>
+      <c r="GF2" s="11">
+        <v>43921</v>
+      </c>
+      <c r="GG2" s="11">
+        <v>43951</v>
+      </c>
+      <c r="GH2" s="11">
+        <v>43982</v>
+      </c>
+      <c r="GI2" s="11">
+        <v>44012</v>
       </c>
       <c r="ACF2" s="7"/>
       <c r="ACG2" s="7"/>
@@ -17048,308 +17097,575 @@
       <c r="A3" t="s">
         <v>641</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>38219</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14">
+      <c r="C3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" s="9">
         <v>38313</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14">
+      <c r="F3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H3" s="9">
         <v>38397</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14">
+      <c r="I3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K3" s="9">
         <v>38488</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14">
+      <c r="L3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="N3" s="9">
         <v>38579</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="O3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q3" s="9">
         <v>38670</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="R3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="T3" s="9">
         <v>38761</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14">
+      <c r="U3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="W3" s="9">
         <v>38852</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14">
+      <c r="X3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z3" s="9">
         <v>38943</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14">
+      <c r="AA3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC3" s="9">
         <v>39034</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14">
+      <c r="AD3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF3" s="9">
         <v>39126</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14">
+      <c r="AG3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AI3" s="9">
         <v>39216</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14">
+      <c r="AJ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AL3" s="9">
         <v>39308</v>
       </c>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14">
+      <c r="AM3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO3" s="9">
         <v>39399</v>
       </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14">
+      <c r="AP3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AR3" s="9">
         <v>39490</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14">
+      <c r="AS3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AU3" s="9">
         <v>39581</v>
       </c>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14">
+      <c r="AV3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX3" s="9">
         <v>39672</v>
       </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14">
+      <c r="AY3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BA3" s="9">
         <v>39769</v>
       </c>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14">
+      <c r="BB3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BD3" s="9">
         <v>39857</v>
       </c>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14">
+      <c r="BE3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BG3" s="9">
         <v>39948</v>
       </c>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14">
+      <c r="BH3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BJ3" s="9">
         <v>40039</v>
       </c>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14">
+      <c r="BK3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BM3" s="9">
         <v>40133</v>
       </c>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14">
+      <c r="BN3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BP3" s="9">
         <v>40221</v>
       </c>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14">
+      <c r="BQ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BS3" s="9">
         <v>40312</v>
       </c>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14">
+      <c r="BT3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BV3" s="9">
         <v>40403</v>
       </c>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14">
+      <c r="BW3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BY3" s="9">
         <v>40497</v>
       </c>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14">
+      <c r="BZ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CB3" s="9">
         <v>40585</v>
       </c>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14">
+      <c r="CC3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CE3" s="9">
         <v>40676</v>
       </c>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14">
+      <c r="CF3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CH3" s="9">
         <v>40767</v>
       </c>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14">
+      <c r="CI3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CK3" s="9">
         <v>40861</v>
       </c>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14">
+      <c r="CL3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CM3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CN3" s="9">
         <v>40949</v>
       </c>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14">
+      <c r="CO3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CP3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CQ3" s="9">
         <v>41040</v>
       </c>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14">
+      <c r="CR3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CS3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CT3" s="9">
         <v>41131</v>
       </c>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14">
+      <c r="CU3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CV3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CW3" s="9">
         <v>41222</v>
       </c>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14">
+      <c r="CX3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CZ3" s="9">
         <v>41320</v>
       </c>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14">
+      <c r="DA3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DB3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DC3" s="9">
         <v>41404</v>
       </c>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14">
+      <c r="DD3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DF3" s="9">
         <v>41502</v>
       </c>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14">
+      <c r="DG3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DI3" s="9">
         <v>41603</v>
       </c>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14">
+      <c r="DJ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DK3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DL3" s="9">
         <v>41684</v>
       </c>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14">
+      <c r="DM3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DN3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DO3" s="9">
         <v>41775</v>
       </c>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14">
+      <c r="DP3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DQ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DR3" s="9">
         <v>41866</v>
       </c>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14">
+      <c r="DS3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DT3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DU3" s="9">
         <v>41960</v>
       </c>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14">
+      <c r="DV3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DW3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DX3" s="9">
         <v>42048</v>
       </c>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14">
+      <c r="DY3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DZ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EA3" s="9">
         <v>42139</v>
       </c>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14">
+      <c r="EB3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EC3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ED3" s="9">
         <v>42230</v>
       </c>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14">
+      <c r="EE3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EF3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EG3" s="9">
         <v>42321</v>
       </c>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14">
+      <c r="EH3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EI3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EJ3" s="9">
         <v>42412</v>
       </c>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14">
+      <c r="EK3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EL3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EM3" s="9">
         <v>42503</v>
       </c>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14">
+      <c r="EN3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EO3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EP3" s="9">
         <v>42594</v>
       </c>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14">
+      <c r="EQ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ER3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ES3" s="9">
         <v>42688</v>
       </c>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14">
+      <c r="ET3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EU3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EV3" s="9">
         <v>42776</v>
       </c>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14">
+      <c r="EW3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EX3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EY3" s="9">
         <v>42867</v>
       </c>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14">
+      <c r="EZ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FA3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FB3" s="9">
         <v>42958</v>
       </c>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14">
+      <c r="FC3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FD3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FE3" s="9">
         <v>43052</v>
       </c>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14">
+      <c r="FF3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FG3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FH3" s="9">
         <v>43140</v>
       </c>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14">
+      <c r="FI3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FJ3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FK3" s="9">
         <v>43231</v>
       </c>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14">
+      <c r="FL3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FM3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FN3" s="9">
         <v>43322</v>
       </c>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14">
+      <c r="FO3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FP3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FQ3" s="9">
         <v>43417</v>
       </c>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14">
+      <c r="FR3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FS3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FT3" s="9">
         <v>43546</v>
       </c>
-      <c r="FU3" s="14"/>
-      <c r="FV3" s="14"/>
-      <c r="FW3" s="14">
+      <c r="FU3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FV3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FW3" s="9">
         <v>43595</v>
       </c>
-      <c r="FX3" s="14"/>
-      <c r="FY3" s="14"/>
-      <c r="FZ3" s="14">
+      <c r="FX3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FY3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FZ3" s="9">
         <v>43686</v>
+      </c>
+      <c r="GA3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GB3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GC3" s="9">
+        <v>43784</v>
+      </c>
+      <c r="GD3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GE3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GF3" s="9">
+        <v>43875</v>
+      </c>
+      <c r="GG3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GH3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GI3" s="9">
+        <v>43966</v>
       </c>
       <c r="ACF3" s="7"/>
       <c r="ACG3" s="7"/>
@@ -17548,308 +17864,575 @@
       <c r="A4" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>38219</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14">
+      <c r="C4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="E4" s="9">
         <v>38313</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
+      <c r="F4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H4" s="9">
         <v>38397</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="I4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K4" s="9">
         <v>38488</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14">
+      <c r="L4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="N4" s="9">
         <v>38579</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="O4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q4" s="9">
         <v>38670</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14">
+      <c r="R4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="T4" s="9">
         <v>38761</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14">
+      <c r="U4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="W4" s="9">
         <v>38852</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14">
+      <c r="X4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z4" s="9">
         <v>38943</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14">
+      <c r="AA4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC4" s="9">
         <v>39034</v>
       </c>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14">
+      <c r="AD4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF4" s="9">
         <v>39126</v>
       </c>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14">
+      <c r="AG4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AI4" s="9">
         <v>39216</v>
       </c>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14">
+      <c r="AJ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AL4" s="9">
         <v>39308</v>
       </c>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14">
+      <c r="AM4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO4" s="9">
         <v>39399</v>
       </c>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14">
+      <c r="AP4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AR4" s="9">
         <v>39490</v>
       </c>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14">
+      <c r="AS4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AU4" s="9">
         <v>39581</v>
       </c>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14">
+      <c r="AV4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX4" s="9">
         <v>39672</v>
       </c>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14">
+      <c r="AY4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BA4" s="9">
         <v>39769</v>
       </c>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14">
+      <c r="BB4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BD4" s="9">
         <v>39857</v>
       </c>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14">
+      <c r="BE4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BG4" s="9">
         <v>39948</v>
       </c>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14">
+      <c r="BH4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BJ4" s="9">
         <v>40039</v>
       </c>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14">
+      <c r="BK4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BM4" s="9">
         <v>40133</v>
       </c>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14">
+      <c r="BN4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BP4" s="9">
         <v>40221</v>
       </c>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14">
+      <c r="BQ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BR4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BS4" s="9">
         <v>40312</v>
       </c>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14">
+      <c r="BT4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BU4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BV4" s="9">
         <v>40403</v>
       </c>
-      <c r="BW4" s="14"/>
-      <c r="BX4" s="14"/>
-      <c r="BY4" s="14">
+      <c r="BW4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BX4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="BY4" s="9">
         <v>40497</v>
       </c>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14">
+      <c r="BZ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CA4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CB4" s="9">
         <v>40585</v>
       </c>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14">
+      <c r="CC4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CD4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CE4" s="9">
         <v>40676</v>
       </c>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14">
+      <c r="CF4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CG4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CH4" s="9">
         <v>40767</v>
       </c>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14">
+      <c r="CI4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CJ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CK4" s="9">
         <v>40861</v>
       </c>
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14">
+      <c r="CL4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CM4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CN4" s="9">
         <v>40949</v>
       </c>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14">
+      <c r="CO4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CP4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CQ4" s="9">
         <v>41040</v>
       </c>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14">
+      <c r="CR4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CS4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CT4" s="9">
         <v>41131</v>
       </c>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14">
+      <c r="CU4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CV4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CW4" s="9">
         <v>41222</v>
       </c>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14">
+      <c r="CX4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CY4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="CZ4" s="9">
         <v>41320</v>
       </c>
-      <c r="DA4" s="14"/>
-      <c r="DB4" s="14"/>
-      <c r="DC4" s="14">
+      <c r="DA4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DB4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DC4" s="9">
         <v>41404</v>
       </c>
-      <c r="DD4" s="14"/>
-      <c r="DE4" s="14"/>
-      <c r="DF4" s="14">
+      <c r="DD4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DE4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DF4" s="9">
         <v>41502</v>
       </c>
-      <c r="DG4" s="14"/>
-      <c r="DH4" s="14"/>
-      <c r="DI4" s="14">
+      <c r="DG4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DI4" s="9">
         <v>41603</v>
       </c>
-      <c r="DJ4" s="14"/>
-      <c r="DK4" s="14"/>
-      <c r="DL4" s="14">
+      <c r="DJ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DK4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DL4" s="9">
         <v>41684</v>
       </c>
-      <c r="DM4" s="14"/>
-      <c r="DN4" s="14"/>
-      <c r="DO4" s="14">
+      <c r="DM4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DN4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DO4" s="9">
         <v>41775</v>
       </c>
-      <c r="DP4" s="14"/>
-      <c r="DQ4" s="14"/>
-      <c r="DR4" s="14">
+      <c r="DP4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DQ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DR4" s="9">
         <v>41866</v>
       </c>
-      <c r="DS4" s="14"/>
-      <c r="DT4" s="14"/>
-      <c r="DU4" s="14">
+      <c r="DS4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DT4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DU4" s="9">
         <v>41960</v>
       </c>
-      <c r="DV4" s="14"/>
-      <c r="DW4" s="14"/>
-      <c r="DX4" s="14">
+      <c r="DV4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DW4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DX4" s="9">
         <v>42048</v>
       </c>
-      <c r="DY4" s="14"/>
-      <c r="DZ4" s="14"/>
-      <c r="EA4" s="14">
+      <c r="DY4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="DZ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EA4" s="9">
         <v>42139</v>
       </c>
-      <c r="EB4" s="14"/>
-      <c r="EC4" s="14"/>
-      <c r="ED4" s="14">
+      <c r="EB4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EC4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ED4" s="9">
         <v>42230</v>
       </c>
-      <c r="EE4" s="14"/>
-      <c r="EF4" s="14"/>
-      <c r="EG4" s="14">
+      <c r="EE4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EF4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EG4" s="9">
         <v>42321</v>
       </c>
-      <c r="EH4" s="14"/>
-      <c r="EI4" s="14"/>
-      <c r="EJ4" s="14">
+      <c r="EH4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EI4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EJ4" s="9">
         <v>42412</v>
       </c>
-      <c r="EK4" s="14"/>
-      <c r="EL4" s="14"/>
-      <c r="EM4" s="14">
+      <c r="EK4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EL4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EM4" s="9">
         <v>42503</v>
       </c>
-      <c r="EN4" s="14"/>
-      <c r="EO4" s="14"/>
-      <c r="EP4" s="14">
+      <c r="EN4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EO4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EP4" s="9">
         <v>42594</v>
       </c>
-      <c r="EQ4" s="14"/>
-      <c r="ER4" s="14"/>
-      <c r="ES4" s="14">
+      <c r="EQ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ER4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="ES4" s="9">
         <v>42688</v>
       </c>
-      <c r="ET4" s="14"/>
-      <c r="EU4" s="14"/>
-      <c r="EV4" s="14">
+      <c r="ET4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EU4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EV4" s="9">
         <v>42776</v>
       </c>
-      <c r="EW4" s="14"/>
-      <c r="EX4" s="14"/>
-      <c r="EY4" s="14">
+      <c r="EW4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EX4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="EY4" s="9">
         <v>42867</v>
       </c>
-      <c r="EZ4" s="14"/>
-      <c r="FA4" s="14"/>
-      <c r="FB4" s="14">
+      <c r="EZ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FA4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FB4" s="9">
         <v>42958</v>
       </c>
-      <c r="FC4" s="14"/>
-      <c r="FD4" s="14"/>
-      <c r="FE4" s="14">
+      <c r="FC4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FD4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FE4" s="9">
         <v>43052</v>
       </c>
-      <c r="FF4" s="14"/>
-      <c r="FG4" s="14"/>
-      <c r="FH4" s="14">
+      <c r="FF4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FG4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FH4" s="9">
         <v>43140</v>
       </c>
-      <c r="FI4" s="14"/>
-      <c r="FJ4" s="14"/>
-      <c r="FK4" s="14">
+      <c r="FI4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FJ4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FK4" s="9">
         <v>43231</v>
       </c>
-      <c r="FL4" s="14"/>
-      <c r="FM4" s="14"/>
-      <c r="FN4" s="14">
+      <c r="FL4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FM4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FN4" s="9">
         <v>43322</v>
       </c>
-      <c r="FO4" s="14"/>
-      <c r="FP4" s="14"/>
-      <c r="FQ4" s="14">
+      <c r="FO4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FP4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FQ4" s="9">
         <v>43417</v>
       </c>
-      <c r="FR4" s="14"/>
-      <c r="FS4" s="14"/>
-      <c r="FT4" s="14">
+      <c r="FR4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FS4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FT4" s="9">
         <v>43546</v>
       </c>
-      <c r="FU4" s="14"/>
-      <c r="FV4" s="14"/>
-      <c r="FW4" s="14">
+      <c r="FU4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FV4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FW4" s="9">
         <v>43595</v>
       </c>
-      <c r="FX4" s="14"/>
-      <c r="FY4" s="14"/>
-      <c r="FZ4" s="14">
+      <c r="FX4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FY4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="FZ4" s="9">
         <v>43686</v>
+      </c>
+      <c r="GA4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GB4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GC4" s="9">
+        <v>43784</v>
+      </c>
+      <c r="GD4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GE4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GF4" s="9">
+        <v>43875</v>
+      </c>
+      <c r="GG4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GH4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="GI4" s="9">
+        <v>43966</v>
       </c>
     </row>
   </sheetData>
